--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75727-Reviews-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>202</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Anaheim-Buena-Park.h41423.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1738 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r386790058-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>75727</t>
+  </si>
+  <si>
+    <t>386790058</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Nice price nice stay</t>
+  </si>
+  <si>
+    <t>The price of the hotel is awesome. the room was not too bad it had some burn marks on the comforter on the bed but other than that it was a pretty good stay.  If you do stay at this location go to sleep at 10 if you go to sleep earlier you will hear the fireworks sometimes sirens from the street  but it seems that it quiets down at 10pm.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>The price of the hotel is awesome. the room was not too bad it had some burn marks on the comforter on the bed but other than that it was a pretty good stay.  If you do stay at this location go to sleep at 10 if you go to sleep earlier you will hear the fireworks sometimes sirens from the street  but it seems that it quiets down at 10pm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r378796523-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>378796523</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Loud hwy and druggies</t>
+  </si>
+  <si>
+    <t>In any room in this hotel you can hear the traffic from the highway and all hours of the night druggies were running the halls. We had a terrible sewer gas leak in our room. It wad a Terrible stay all around. The office gave us a discount for our bad stay. Kudos to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>In any room in this hotel you can hear the traffic from the highway and all hours of the night druggies were running the halls. We had a terrible sewer gas leak in our room. It wad a Terrible stay all around. The office gave us a discount for our bad stay. Kudos to the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r373939748-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>373939748</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Cheap Hotel very Close to Disney Park</t>
+  </si>
+  <si>
+    <t>This is a very modest hotel very suited if you are planning to go to Disney park and return to the hotel for sleeping and start over the next day. It is very close to Disney entrance, about 5 minutes by car. and of course it is cheapMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Anaheim - Buena Park, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>This is a very modest hotel very suited if you are planning to go to Disney park and return to the hotel for sleeping and start over the next day. It is very close to Disney entrance, about 5 minutes by car. and of course it is cheapMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r295474665-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>295474665</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Best of motel 6 locations</t>
+  </si>
+  <si>
+    <t>The front desk is very friendly and helpful. The rooms are very relaxing and gives you a at home kind of feeling.Also have a microwave and refrigerator.They are dog friendly no matter what size and have a dog area. Never seen any bugs here ever.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r283399209-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>283399209</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Staff was Accommodating</t>
+  </si>
+  <si>
+    <t>My experience as Travelodge was fantastic!!!!!!!.......and already wrote a review of this property........As Motel 6...... I know nothing of it and cannot write a review, as other reviewers seem to have had a bad experience which I did not encounter</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r281971789-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>281971789</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fathers day weekend </t>
+  </si>
+  <si>
+    <t>Last minute trip booked her for something cheaper. The rooms here have not been redone yet as it use to be a Travelodge. Plus items microwave, Refrigerator, good WiFi, TV had direct TV was good quality quite a few channels HBO and Cinemax. Rooms were big did not have carpet which was nice. The room itself was clean and the outside was kept nice nothing special. The minus items. Not sure how the vent for the exhaust fans in the bathrooms are connected but you could smell smoke sometimes from other rooms that allowed smoking. One time it was someone smoking Marijuana. Management might want to clarify what a smoking room allows. Not sure if they are ok with people smoking Marijuana in the rooms. It is a descent budget motel but you need to remember when booking it is low budget. One thing I have noticed with Motel 6 they seem to have permanent guests living there. In closing i would stay here again if i was looking for a super cheap place to stay however if your willing to spend 50 dollars more for a couple nights stay you can do much better. Also it is about a 15 to 18 minute  drive to Mickey and friends parking garage from here and just down the street from Knotts. Plenty of fast food in the area and other sit down restaurants but you need to drive. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Last minute trip booked her for something cheaper. The rooms here have not been redone yet as it use to be a Travelodge. Plus items microwave, Refrigerator, good WiFi, TV had direct TV was good quality quite a few channels HBO and Cinemax. Rooms were big did not have carpet which was nice. The room itself was clean and the outside was kept nice nothing special. The minus items. Not sure how the vent for the exhaust fans in the bathrooms are connected but you could smell smoke sometimes from other rooms that allowed smoking. One time it was someone smoking Marijuana. Management might want to clarify what a smoking room allows. Not sure if they are ok with people smoking Marijuana in the rooms. It is a descent budget motel but you need to remember when booking it is low budget. One thing I have noticed with Motel 6 they seem to have permanent guests living there. In closing i would stay here again if i was looking for a super cheap place to stay however if your willing to spend 50 dollars more for a couple nights stay you can do much better. Also it is about a 15 to 18 minute  drive to Mickey and friends parking garage from here and just down the street from Knotts. Plenty of fast food in the area and other sit down restaurants but you need to drive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r255122769-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>255122769</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r254811686-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>254811686</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>The entrance looked a little dark, the front desk greeted me cold until my fiance walked in and he welcomed her with open arms. We got our Room towards the back off the lot, logged that it was downstairs, opened room and it was nice love that it came with a fridge and a microwave. Toilet was a little dirty and shower the bottom of the inside made new shower in my sandals. Coffee machine didn't work , AC was on point to. Customer service needs a little work, asked for towels and didn't get any but was so tired from a long day of driving and work that neither myself nor my fiance wanted to stay calling the front for towels and cups since there weren't any in our Room. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The entrance looked a little dark, the front desk greeted me cold until my fiance walked in and he welcomed her with open arms. We got our Room towards the back off the lot, logged that it was downstairs, opened room and it was nice love that it came with a fridge and a microwave. Toilet was a little dirty and shower the bottom of the inside made new shower in my sandals. Coffee machine didn't work , AC was on point to. Customer service needs a little work, asked for towels and didn't get any but was so tired from a long day of driving and work that neither myself nor my fiance wanted to stay calling the front for towels and cups since there weren't any in our Room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r253598889-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>253598889</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Disneyland Vacation</t>
+  </si>
+  <si>
+    <t>Just a very basic hotel but close to Disneyland.  We found the hotel and room very clean and the staff very friendly.  Free breakfast was nothing to brag about.  Not many protein, if any, items to choose from.  Very easy walk to Disneyland and even a shorter walk to the tram.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r250825847-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>250825847</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Surprised with the hotel</t>
+  </si>
+  <si>
+    <t>I read reviews, and was a little worried. I ended up being surprised. It was clean, the beds were comfy, the room was smell free. The bathroom had some wear to it, but no worse than the average bathroom. A mile from knotts, midevil times, and pirates. About 3 miles from Disneyland. Easy drive. I remember reading that the staff wasn't nice... They were very nice. I had no issues at all,and they answered my questions just fine.the breakfast was very very basic, cereal, milk, coffee juice and pasteries... I like cereal so I was contempt. Free food is free food.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r247656589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>247656589</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r246271703-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>246271703</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r244880288-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>244880288</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r242846158-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>242846158</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WYNDHAM SUCKS </t>
+  </si>
+  <si>
+    <t>Lies about price of room and then said they could do nothing to fix it and made us call the national line and try and get it fixed and of course no one helped us and we were stuck at this hell hole overpriced piece of bull!!! Never again WYNDHAM next of our frequent visits to buena park we will be back at our favorite place BEST HOST INN, LOOK IT UP PEOPLE YOU WONT BE SORRY!!! BEST CUSTOMER SERVICE AND STAFF YOU'LL FIND AT A GREAT PRICE, NEW ROOMS AND A FULL HOT BREAKFAST!!! CADDY CORNER TO KNOTTS BERRY FARM !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r242844980-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>242844980</t>
+  </si>
+  <si>
+    <t>lies all lies</t>
+  </si>
+  <si>
+    <t>They lied about the price of our room and made the deal sound so great we cancelled our other reservations at a choice hotel chain, only to arrive and be charged a higher price and called the national line to have it fixed only to be put on hold and be passed along to the next operator who never answered,and when someone from the national line found us another room ,we couldn't get it cause they had already charged my card even when i refused to sign the reciept! So we were stuck and had to pay the 40 dollars extra for a crappy hotel from a crappy hotel chain WYNDHAM,and we didn't even get our point as reward members??? Hell at choice hotel chain after our first 2 stays we earned a 50 gas card!!!! Never Again will we stay at a WYNDHAM PROPERTY..........WE ARE NOW A CHOICE HOTEL CHAIN FAMILY!!! WYNDHAM IS FULL OF LIES AND FALSE ADVERTISING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>They lied about the price of our room and made the deal sound so great we cancelled our other reservations at a choice hotel chain, only to arrive and be charged a higher price and called the national line to have it fixed only to be put on hold and be passed along to the next operator who never answered,and when someone from the national line found us another room ,we couldn't get it cause they had already charged my card even when i refused to sign the reciept! So we were stuck and had to pay the 40 dollars extra for a crappy hotel from a crappy hotel chain WYNDHAM,and we didn't even get our point as reward members??? Hell at choice hotel chain after our first 2 stays we earned a 50 gas card!!!! Never Again will we stay at a WYNDHAM PROPERTY..........WE ARE NOW A CHOICE HOTEL CHAIN FAMILY!!! WYNDHAM IS FULL OF LIES AND FALSE ADVERTISING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r241347534-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>241347534</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Nothing like the photos, horrible service</t>
+  </si>
+  <si>
+    <t>First this hotel looks nothing like the pictures on its web page. The website is very miss leading. Second the rooms were very low quality. We came back to our room and they had not cleaned it. The beds were not made, trash cans still full, no clean towels. We went to the office and told them, all they could say was well it said it was cleaned and there was not much they could do. Third get to breakfast early if you actually stay there. We went down at 8 am and there was not food left. The person at the desk said they only have a set amount of food and they would not put out anymore. Lastly if you enjoy drug deals and the police in the parking lot then this is the place for you. I would not  recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>First this hotel looks nothing like the pictures on its web page. The website is very miss leading. Second the rooms were very low quality. We came back to our room and they had not cleaned it. The beds were not made, trash cans still full, no clean towels. We went to the office and told them, all they could say was well it said it was cleaned and there was not much they could do. Third get to breakfast early if you actually stay there. We went down at 8 am and there was not food left. The person at the desk said they only have a set amount of food and they would not put out anymore. Lastly if you enjoy drug deals and the police in the parking lot then this is the place for you. I would not  recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r240615422-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>240615422</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r239553646-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>239553646</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Our room reeked of cigarettes even though it was a non smoking room. The sink was clogged.No conditioner.The bed spreads were dirty.The carpet was so stained and dirty it turned out feet black.We called at midnight because our smoke alarm was chirping, they said they would bring us a battery but an hour later we walked down to get one and they claimed they forgot, even though the guy was just playing on his phone. The second battery didn't stop the chirping, we complained again and got no response. We asked for the manager to contact us 3 different times and never got a call the 3 days we were there. There were sketchy men in the parking lot all night long.Wifi didn't work.Worst hotel I've ever stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room reeked of cigarettes even though it was a non smoking room. The sink was clogged.No conditioner.The bed spreads were dirty.The carpet was so stained and dirty it turned out feet black.We called at midnight because our smoke alarm was chirping, they said they would bring us a battery but an hour later we walked down to get one and they claimed they forgot, even though the guy was just playing on his phone. The second battery didn't stop the chirping, we complained again and got no response. We asked for the manager to contact us 3 different times and never got a call the 3 days we were there. There were sketchy men in the parking lot all night long.Wifi didn't work.Worst hotel I've ever stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r232644188-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>232644188</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Budget motel</t>
+  </si>
+  <si>
+    <t>Nice stay near disneyland and we booked two rooms next to each other. The only complaint was my room was smell of cigarettes and the other room smelled of beer spills. They clean the room the next day but the smells keep coming back but they tidy up the room everyday. Breakfast comes with the room but not many choices also we found that some cartons of milk already over use by date inside the fridge. Other than that the room was quite clean and the bed was comfortable for cheap rates. Also there is a free wifi to use in hotel room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r231696712-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>231696712</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r230097796-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>230097796</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r223307116-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>223307116</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Maid service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maid service was missed one day and when I talked to the front desk about it for some reason she cancelled the following day as well as I discovered when I talked to someone at the front desk at 5:00PM about why there wasn't room service for the second day. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r221295589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>221295589</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Clean, quite and very nice customer service! However, the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quite and very nice customer service! However, the furniture was old, and scuffed. However did have a newer model, flat screen TV. Very comfortable thick mattress, with lots of pillows. Refridgerator was wobbly, since it was missing a leg, but worked perfectly. Did not like that the pool closed at 9pm. The pool water could've been clearer.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r221098135-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>221098135</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r217522792-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>217522792</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Miss representation on the outside bill board that there...</t>
+  </si>
+  <si>
+    <t>Miss representation on the outside bill board that there was a jacuzzi.  There wasn't one. The room wasnt ready when we got there and had to wait 45 minutes longer and the smell when we opened the door to the room stunk so bad I almost throw up. There was a bag over the smoke detector. And the pool was disgusting. And the coffee pot didnt work!!! No I would not refer anyone to stay there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r215791558-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>215791558</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r214585417-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>214585417</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209817141-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>209817141</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209812460-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>209812460</t>
+  </si>
+  <si>
+    <t>Non-smoking room smells like smoking room</t>
+  </si>
+  <si>
+    <t>Pros-soft bed-nice flat screen tv and hbo-quit neighborhoodCons-non smoking room smells like smoking room-hotel looks very old</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209806183-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>209806183</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r205352117-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>205352117</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Just what I needed for low-budget hotel</t>
+  </si>
+  <si>
+    <t>I'm reviewing this hotel based on the fact it was $50/night for weekend dates when most hotels were $100+ in the area.
+Very easy to find hotel, big sign, can't really miss it. Hotel is about 5 minutes from Knott's Berry's front gate, 15 minutes from Disneyland parking lot. There are plenty of gas stations, convenience stores, and restaurants nearby.
+Front desk girl was friendly enough upon check-in, chatted about the weather, gave me my room key and the free wifi password. I was placed on the 3rd floor (I didn't see an elevator) all the way in the back of the property... which was a little sketchy. There's some older cars/taxis parked in the back that look like they've been there quite some time. Also seemed like possibly some rooms were being lived in like an apartment instead of a short hotel-stay. There was still plenty of parking.
+The room was basic, sink and mirror were dirty the first day and were cleaned on the second. There's a kitchenette with microwave, mini-fridge and hot plate. Didn't use it but it was nice it was there. Water pressure in shower was fine, complimentary shampoo was awful (but it's a Travelodge so I didn't expect much there). Towels were clean.
+TV worked, bed was comfortable, A/C did the job nicely.
+Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed...I'm reviewing this hotel based on the fact it was $50/night for weekend dates when most hotels were $100+ in the area.Very easy to find hotel, big sign, can't really miss it. Hotel is about 5 minutes from Knott's Berry's front gate, 15 minutes from Disneyland parking lot. There are plenty of gas stations, convenience stores, and restaurants nearby.Front desk girl was friendly enough upon check-in, chatted about the weather, gave me my room key and the free wifi password. I was placed on the 3rd floor (I didn't see an elevator) all the way in the back of the property... which was a little sketchy. There's some older cars/taxis parked in the back that look like they've been there quite some time. Also seemed like possibly some rooms were being lived in like an apartment instead of a short hotel-stay. There was still plenty of parking.The room was basic, sink and mirror were dirty the first day and were cleaned on the second. There's a kitchenette with microwave, mini-fridge and hot plate. Didn't use it but it was nice it was there. Water pressure in shower was fine, complimentary shampoo was awful (but it's a Travelodge so I didn't expect much there). Towels were clean.TV worked, bed was comfortable, A/C did the job nicely.Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed something affordable and I'd recommend it to people as well... just make sure your expectations are realistic with the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I'm reviewing this hotel based on the fact it was $50/night for weekend dates when most hotels were $100+ in the area.
+Very easy to find hotel, big sign, can't really miss it. Hotel is about 5 minutes from Knott's Berry's front gate, 15 minutes from Disneyland parking lot. There are plenty of gas stations, convenience stores, and restaurants nearby.
+Front desk girl was friendly enough upon check-in, chatted about the weather, gave me my room key and the free wifi password. I was placed on the 3rd floor (I didn't see an elevator) all the way in the back of the property... which was a little sketchy. There's some older cars/taxis parked in the back that look like they've been there quite some time. Also seemed like possibly some rooms were being lived in like an apartment instead of a short hotel-stay. There was still plenty of parking.
+The room was basic, sink and mirror were dirty the first day and were cleaned on the second. There's a kitchenette with microwave, mini-fridge and hot plate. Didn't use it but it was nice it was there. Water pressure in shower was fine, complimentary shampoo was awful (but it's a Travelodge so I didn't expect much there). Towels were clean.
+TV worked, bed was comfortable, A/C did the job nicely.
+Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed...I'm reviewing this hotel based on the fact it was $50/night for weekend dates when most hotels were $100+ in the area.Very easy to find hotel, big sign, can't really miss it. Hotel is about 5 minutes from Knott's Berry's front gate, 15 minutes from Disneyland parking lot. There are plenty of gas stations, convenience stores, and restaurants nearby.Front desk girl was friendly enough upon check-in, chatted about the weather, gave me my room key and the free wifi password. I was placed on the 3rd floor (I didn't see an elevator) all the way in the back of the property... which was a little sketchy. There's some older cars/taxis parked in the back that look like they've been there quite some time. Also seemed like possibly some rooms were being lived in like an apartment instead of a short hotel-stay. There was still plenty of parking.The room was basic, sink and mirror were dirty the first day and were cleaned on the second. There's a kitchenette with microwave, mini-fridge and hot plate. Didn't use it but it was nice it was there. Water pressure in shower was fine, complimentary shampoo was awful (but it's a Travelodge so I didn't expect much there). Towels were clean.TV worked, bed was comfortable, A/C did the job nicely.Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed something affordable and I'd recommend it to people as well... just make sure your expectations are realistic with the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r204461741-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>204461741</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>ok for 2 star hotel. older hotel,rug could have been better vacuumed. bathroom was spotless,all amenities worked. free hbo. high carb 'breakfast'. aaa rated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r204454646-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>204454646</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r203313322-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>203313322</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>awesome bed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We really enjoyed our stay especially because of the comfy bed and the jacuzzi tub. Thank you </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r202285588-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>202285588</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r201123210-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>201123210</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199659019-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199659019</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199566377-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199566377</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199320004-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199320004</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196880080-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>196880080</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Had a great stay.</t>
+  </si>
+  <si>
+    <t>Hotel has been newly remodeled.  Our room was clean and the beds were comfortable.  The sink had a leak but was fixed within 15 minutes of calling the front desk.  The employees were very friendly and helpful.  The internet coverage for room 316 is very poor but there was very good coverage down by the pool.  Overall we had a great stay for the price.  I look forward to staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196375042-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>196375042</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196185085-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>196185085</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r190782283-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>190782283</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r189031235-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>189031235</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r188728022-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>188728022</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r188481205-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>188481205</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r188468634-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>188468634</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>First to try remodeled room</t>
+  </si>
+  <si>
+    <t>It was a relaxing evening. I got into jacuzzi tub for a couple hours. Slept like a baby in the queen sized bed. I highly recommend this room. Well worth the money. Next time i have extra to pay for room i am coming back to travellodge</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r186537601-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>186537601</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r181070587-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>181070587</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r180899951-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>180899951</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r178515787-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>178515787</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>SUPER GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love it.My famil also enjoyed their stay.We had a good costumer servicerep.Your location is also at the center of all the major attractions          </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r173883411-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>173883411</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r173837847-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>173837847</t>
+  </si>
+  <si>
+    <t>Average Room but Good Service</t>
+  </si>
+  <si>
+    <t>We had a late arrival (really late...we checked in at 6:30am!) We had traveled from Northern California, stopped over in San Francisco including making a stop in China Town and I neglected to check the traffic report on the I5 traveling North to South and ran smack dab into road construction on a couple of spots on the I5.  I called Travelodge to notify them of a late check-in although, we didn't realize we would be that late. Well, the motel was sold out that night, however, upon OUR arrival the Front Desk had everything ready for us; it took us about 5 minutes to check-in. As you can imagine, we were exhausted so the fast, friendly service was much greatly appreciated! Thank you!Everything else was average but we had no problems with late Housekeeping requests and Front Desk service!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a late arrival (really late...we checked in at 6:30am!) We had traveled from Northern California, stopped over in San Francisco including making a stop in China Town and I neglected to check the traffic report on the I5 traveling North to South and ran smack dab into road construction on a couple of spots on the I5.  I called Travelodge to notify them of a late check-in although, we didn't realize we would be that late. Well, the motel was sold out that night, however, upon OUR arrival the Front Desk had everything ready for us; it took us about 5 minutes to check-in. As you can imagine, we were exhausted so the fast, friendly service was much greatly appreciated! Thank you!Everything else was average but we had no problems with late Housekeeping requests and Front Desk service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r172694255-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>172694255</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r171403063-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>171403063</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r171069561-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>171069561</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r170967406-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>170967406</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r167950735-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>167950735</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>So dirty!!</t>
+  </si>
+  <si>
+    <t>I've stayed in cheap hotels a thousand times, but this one takes the crown. Not only I got a smoking room when I requested a non smoking one, but the room was dirty! There were no electrical outlets with easy access and the hallway smelled like piss. I won't be staying at any Travelodge any time soon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r167825780-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>167825780</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r166536020-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>166536020</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r165884584-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>165884584</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r165369708-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>165369708</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r164848973-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>164848973</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r162890256-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>162890256</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Good cost / benefit.</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there last January for 2 weeks. In this hotel was good:- Staff (was friendly and helpfull)- Fast check-in/out- Location (very good 7 minutes to Disney)- Price - spacious room- hot water all timeWas bad:- need to remodel the rooms. The furniture is very old and it has horrible tv- Carpets are dirty- ant in roomsThe cost / benefit was good.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r162211085-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>162211085</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r161419166-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>161419166</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Hotel needs to hurry up with the remodeling being done...</t>
+  </si>
+  <si>
+    <t>Hotel needs to hurry up with the remodeling being done.  Rooms were shabby looking, and I wore socks the whole time I was in the room.  Carpets are very dirty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r158079549-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>158079549</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Very Good Budget Hotel</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here with our kids (8yr old &amp; 5yr old) last December.  Our room was clean and spacious. The staff was friendly.  We arrived in the middle of the night and Opree (or Ofree) checked us in quickly and made us feel very welcomed.  It was very late,  we just wanted to get to our room &amp; sleep, so were thankful for his fast &amp; efficient work.  This was a little  ways from Disney but no biggie for us, it was close enough to Disney &amp; Knotts. We loved that it offered free breakfast,  anything free in Anaheim's overpriced economy is very much appreciated!  It's not gourmet but its free &amp; lots of choices for the whole family.  We liked this place &amp; will come back next time we go to Anaheim.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here with our kids (8yr old &amp; 5yr old) last December.  Our room was clean and spacious. The staff was friendly.  We arrived in the middle of the night and Opree (or Ofree) checked us in quickly and made us feel very welcomed.  It was very late,  we just wanted to get to our room &amp; sleep, so were thankful for his fast &amp; efficient work.  This was a little  ways from Disney but no biggie for us, it was close enough to Disney &amp; Knotts. We loved that it offered free breakfast,  anything free in Anaheim's overpriced economy is very much appreciated!  It's not gourmet but its free &amp; lots of choices for the whole family.  We liked this place &amp; will come back next time we go to Anaheim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r157985182-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>157985182</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r157855604-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>157855604</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Great location  and price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent 5 days in. We liked the location, the price, clean outside and room, the nice and friendly staff,  the breakfast was OK if you consider it was not your 5 star Hotel. My only complain is that room dirty carpet that turns your feet into black!!!  Is it that expensive for them to clean that carpet? </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r156738812-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>156738812</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r156418398-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>156418398</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r155707774-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>155707774</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r154451157-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>154451157</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Only as a last Resort</t>
+  </si>
+  <si>
+    <t>I booked this Hotel because I had credits on my Wyndam card. Wish I would have stayed somewhere else! The people were very accommodating, but that,s about where it ends! My first room was fair until the kids upstairs started running around and making noise. I had to move to the only room they had left. It was on the 3rd floor, which was alright but it must have been a monthly rental room, which they offer. This should have been a clue, but that was not on the website! Room smelled, outdated furnishing, in a real questionable part of town. I find it hard to believe that the other people rating the Hotel stayed at this place and rate it so high! Never again! I will go to the Good Nite Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this Hotel because I had credits on my Wyndam card. Wish I would have stayed somewhere else! The people were very accommodating, but that,s about where it ends! My first room was fair until the kids upstairs started running around and making noise. I had to move to the only room they had left. It was on the 3rd floor, which was alright but it must have been a monthly rental room, which they offer. This should have been a clue, but that was not on the website! Room smelled, outdated furnishing, in a real questionable part of town. I find it hard to believe that the other people rating the Hotel stayed at this place and rate it so high! Never again! I will go to the Good Nite Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r153902414-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153902414</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>I was very pleased with the location, didn't expect much...</t>
+  </si>
+  <si>
+    <t>I was very pleased with the location, didn't expect much for breakfast but when we went downstairs i was very satisfied and surprised Will definitely in the future come back. And its military friendly thank you.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r153336896-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>153336896</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r151049812-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>151049812</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r148225056-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>148225056</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r146770400-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>146770400</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>We had a great time, thank you for the excellent recommendations</t>
+  </si>
+  <si>
+    <t>I wanted to give my son a really cool birthday present so i decided to take him to Disney Land, not really sure how we ended up at the Travel Lodge but I am very happy that we did, i saved so much money and the staff at the desk were so helpful. I could not beleive the level of the  customer service. it has been a while since i really felt like the staff wanted to take care of there customers. agian thank you for all your help.Connie M.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r145622348-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>145622348</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>OMG what can i say.</t>
+  </si>
+  <si>
+    <t>Took family to Knotts scary farm but i think the hotel we chose was the real fright. Last min planning i guess. 1st room on north side the air conditioner didnt work was very warm, requested another room and it smelled like homeless dirty feet, requested another and it had a pass thru door between rooms, omg door jam so bad you could lock door pull knob and it would just pop open ,what kind of security do you have with people in room next to you NONE&gt; Asked for another room to managements displeasure and finaly got a room worth sleeping in. I dont think im so picky but when it comes to family safety and some comfort i have to be. WAS within walking distance of park across street. So if all your lookin for is a pillow to sleep after a long nite so so .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Took family to Knotts scary farm but i think the hotel we chose was the real fright. Last min planning i guess. 1st room on north side the air conditioner didnt work was very warm, requested another room and it smelled like homeless dirty feet, requested another and it had a pass thru door between rooms, omg door jam so bad you could lock door pull knob and it would just pop open ,what kind of security do you have with people in room next to you NONE&gt; Asked for another room to managements displeasure and finaly got a room worth sleeping in. I dont think im so picky but when it comes to family safety and some comfort i have to be. WAS within walking distance of park across street. So if all your lookin for is a pillow to sleep after a long nite so so .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r145011103-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>145011103</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r144617855-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>144617855</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>RUDE and falling apart!</t>
+  </si>
+  <si>
+    <t>The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED...The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED with me and told me I should have taken my money and gone elsewhere... uhhh I booked this room way ahead of time. I'm not just going to drive around looking for a new place to stay. Seriously, I've never been treated that way by an employee anywhere. I had to stop the manager dead in his tracks while he was yelling and let him know his behavior was unacceptable and I had to hang up on him. I've worked at a hotel before and have still never seen anything like that!MoreShow less</t>
+  </si>
+  <si>
+    <t>The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED...The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED with me and told me I should have taken my money and gone elsewhere... uhhh I booked this room way ahead of time. I'm not just going to drive around looking for a new place to stay. Seriously, I've never been treated that way by an employee anywhere. I had to stop the manager dead in his tracks while he was yelling and let him know his behavior was unacceptable and I had to hang up on him. I've worked at a hotel before and have still never seen anything like that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r144042225-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>144042225</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Will not return</t>
+  </si>
+  <si>
+    <t>Not in a safe area for children. We found tons of ants in the room &amp; carpet left our baby black from dirt in a matter of seconds. Mat in bathtub stained with mold. Staff was friendly however.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r142611054-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>142611054</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Dont go here~!!</t>
+  </si>
+  <si>
+    <t>I made reservations for myself and my husband ,we were expecting a comfortabe night stay....we were wrong !!!! As soon as I parked I saw three prostitutes walking into the hotel together (and your probobly thinking how do you know they are prostitutes) Oh you would know too .When we got to our room it smelled moldy and I saw a Couple of fleas jumping on the carpet ,ciggarette burns on the toilt seat,and water stains on the ceiling I called the front desk andshe said in a uncaring voice sorry nothing we could do . I quickly called expedia who I booked with and said move me please !! and that was te end of that.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made reservations for myself and my husband ,we were expecting a comfortabe night stay....we were wrong !!!! As soon as I parked I saw three prostitutes walking into the hotel together (and your probobly thinking how do you know they are prostitutes) Oh you would know too .When we got to our room it smelled moldy and I saw a Couple of fleas jumping on the carpet ,ciggarette burns on the toilt seat,and water stains on the ceiling I called the front desk andshe said in a uncaring voice sorry nothing we could do . I quickly called expedia who I booked with and said move me please !! and that was te end of that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r142568567-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>142568567</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r138601589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>138601589</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Tons of Smoke in non smoking room, ants, dirty...</t>
+  </si>
+  <si>
+    <t>Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service...Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service for only $30 more per night! Skip this place,don't learn the hard way like us!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service...Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service for only $30 more per night! Skip this place,don't learn the hard way like us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r138547242-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>138547242</t>
+  </si>
+  <si>
+    <t>Was a decent place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night for our trip in August and honestly it wasn't all that bad. We checked in around 11pm and the front desk was very friendly and helpful. The room itself was ok, it wasn't the most updated but for the price range, this was a great deal. We had clean towels and clean sheets which is very important to me. It seems like the tried to update a little with the painted walls and decor which is pretty nice. Bathroom could have used with a little more water pressure in the shower but, there was plenty of hot water to go around for all 3 of us. I did not get to use the indoor pool because of our short stay but it seemed nice enough.The only down fall to this location was that there was a few people hanging around in the parking lot around their cars. They seemed to just be talking and socializing but it still gave me an uncomfortable feeling. Can't blame the front desk for going out to tell them not to loiter as it was just her by herself.All in all, I would stay here again. Location is great and the price was a great deal :)MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night for our trip in August and honestly it wasn't all that bad. We checked in around 11pm and the front desk was very friendly and helpful. The room itself was ok, it wasn't the most updated but for the price range, this was a great deal. We had clean towels and clean sheets which is very important to me. It seems like the tried to update a little with the painted walls and decor which is pretty nice. Bathroom could have used with a little more water pressure in the shower but, there was plenty of hot water to go around for all 3 of us. I did not get to use the indoor pool because of our short stay but it seemed nice enough.The only down fall to this location was that there was a few people hanging around in the parking lot around their cars. They seemed to just be talking and socializing but it still gave me an uncomfortable feeling. Can't blame the front desk for going out to tell them not to loiter as it was just her by herself.All in all, I would stay here again. Location is great and the price was a great deal :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r137021935-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>137021935</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>very good choice</t>
+  </si>
+  <si>
+    <t>Me and my family stayed here while on vacation. We were very pleased with the room and location (Disneyland). The management goes above and beyond, which is not expected at a Travelodge.The rooms were very clean well kept even had a large jacuzzi tub.I will definitely stay here next time I'm in town.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r135496332-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>135496332</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great time!</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband and we really enjoyed it! The receptionist at the front desk named Josna was really helpful! The room was really clean and all the staff was so nice! Definitely going to stay here again the next time we're in town!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r135094154-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>135094154</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>scary and poor.</t>
+  </si>
+  <si>
+    <t>First this is an old hotel from bottom to top,carpet stinks,old apliances,old furniture,the tv only like 15 channels if u want more u pay more,swimming pool what a joke 5 by 5 pool and probably they never changed the water or cleaned,they need a good maintenance people to be on top of this,and breakfast is cereal bagels and juice or coffee nothing more,lisa the morning clerk is defensive not nice,she thinks we are doing a favor to her by staying,and at night get ready to hear ambulances,cops sirens all night and the sheriff helicopter all night,and not telling u,people around at night(homeless,prostitutes,etc.)i was scary at some point because i was with my family and i didnt bring my gun to protect me,they knock my door like 3 times at night at 2 in the morning(prostitute)looking for some work,they need to hire a security guard to check at night for intruders,i regret i stay here i should pay 30 or 40 more dollars and stay at the holliday inn at least and get a nice comfort,but i learn my lesson the hard way,i would never stay here or recommend any family to stay here,maybe if ur going solo ok if they reduced the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>First this is an old hotel from bottom to top,carpet stinks,old apliances,old furniture,the tv only like 15 channels if u want more u pay more,swimming pool what a joke 5 by 5 pool and probably they never changed the water or cleaned,they need a good maintenance people to be on top of this,and breakfast is cereal bagels and juice or coffee nothing more,lisa the morning clerk is defensive not nice,she thinks we are doing a favor to her by staying,and at night get ready to hear ambulances,cops sirens all night and the sheriff helicopter all night,and not telling u,people around at night(homeless,prostitutes,etc.)i was scary at some point because i was with my family and i didnt bring my gun to protect me,they knock my door like 3 times at night at 2 in the morning(prostitute)looking for some work,they need to hire a security guard to check at night for intruders,i regret i stay here i should pay 30 or 40 more dollars and stay at the holliday inn at least and get a nice comfort,but i learn my lesson the hard way,i would never stay here or recommend any family to stay here,maybe if ur going solo ok if they reduced the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r134351176-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>134351176</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>worth you pay</t>
+  </si>
+  <si>
+    <t>A decent and convenient place to stay in. Closed to the parks. Staffs are very friendly.  I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r129911491-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>129911491</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Will definitely go back</t>
+  </si>
+  <si>
+    <t>We never read any reviews on this hotel before checking in. My wife &amp; I came from Asia for a 2-3 month business trip. We checked in to the Buena Park Travelodge in Anaheim. Right from the start we knew we had found a rare and special hotel. The front desk staff was genuinely friendly and quick  to help us with all our requests. The GM treated us like family members and hovered over the place like a mother hen wanting to make sure everything was ok, and it was. We live in hotels all over the world 360 days a year and it’s rare to feel like you are really at home but this staff made us feel at home quickly.
+We’re back in Asia now and I only saw the reviews on this hotel a week after departure and I can tell you all the positive reviews are exactly true. We stayed well over a month and were sad to leave. Yes the beds are soft but don’t let that fool you. I have a real bad back and even tho the bed was soft there was strong support on all the curves of my back and I never had such a good nites sleep. My back felt fine the whole time and as soon as we went to a different hotel &amp; a different bed my back pain was right there again.
+If you have a problem,...We never read any reviews on this hotel before checking in. My wife &amp; I came from Asia for a 2-3 month business trip. We checked in to the Buena Park Travelodge in Anaheim. Right from the start we knew we had found a rare and special hotel. The front desk staff was genuinely friendly and quick  to help us with all our requests. The GM treated us like family members and hovered over the place like a mother hen wanting to make sure everything was ok, and it was. We live in hotels all over the world 360 days a year and it’s rare to feel like you are really at home but this staff made us feel at home quickly.We’re back in Asia now and I only saw the reviews on this hotel a week after departure and I can tell you all the positive reviews are exactly true. We stayed well over a month and were sad to leave. Yes the beds are soft but don’t let that fool you. I have a real bad back and even tho the bed was soft there was strong support on all the curves of my back and I never had such a good nites sleep. My back felt fine the whole time and as soon as we went to a different hotel &amp; a different bed my back pain was right there again.If you have a problem, just let Eliza or Josna at the front desk know and they will be right on it. Richmond the GM will give maximum support to the staff to satisfy their guests in every possible way. One day my TV just died in the middle of a good show. Jose’ had my TV replaced in 10 minutes &amp; I enjoyed the rest of my show. You can’t get better service than that anywhere and I don’t care what Star hotel you’re staying at.Honest heartfelt service beats 'plastic face' smiles of the high end hotels every time &amp; at this hotel the smiles &amp; help are for real. I dare any hotel to do better, &amp; we look forward to going back,… they spoiled us, how cool is that? A special thanks to all of you who made it happen.  Les &amp; Wendy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We never read any reviews on this hotel before checking in. My wife &amp; I came from Asia for a 2-3 month business trip. We checked in to the Buena Park Travelodge in Anaheim. Right from the start we knew we had found a rare and special hotel. The front desk staff was genuinely friendly and quick  to help us with all our requests. The GM treated us like family members and hovered over the place like a mother hen wanting to make sure everything was ok, and it was. We live in hotels all over the world 360 days a year and it’s rare to feel like you are really at home but this staff made us feel at home quickly.
+We’re back in Asia now and I only saw the reviews on this hotel a week after departure and I can tell you all the positive reviews are exactly true. We stayed well over a month and were sad to leave. Yes the beds are soft but don’t let that fool you. I have a real bad back and even tho the bed was soft there was strong support on all the curves of my back and I never had such a good nites sleep. My back felt fine the whole time and as soon as we went to a different hotel &amp; a different bed my back pain was right there again.
+If you have a problem,...We never read any reviews on this hotel before checking in. My wife &amp; I came from Asia for a 2-3 month business trip. We checked in to the Buena Park Travelodge in Anaheim. Right from the start we knew we had found a rare and special hotel. The front desk staff was genuinely friendly and quick  to help us with all our requests. The GM treated us like family members and hovered over the place like a mother hen wanting to make sure everything was ok, and it was. We live in hotels all over the world 360 days a year and it’s rare to feel like you are really at home but this staff made us feel at home quickly.We’re back in Asia now and I only saw the reviews on this hotel a week after departure and I can tell you all the positive reviews are exactly true. We stayed well over a month and were sad to leave. Yes the beds are soft but don’t let that fool you. I have a real bad back and even tho the bed was soft there was strong support on all the curves of my back and I never had such a good nites sleep. My back felt fine the whole time and as soon as we went to a different hotel &amp; a different bed my back pain was right there again.If you have a problem, just let Eliza or Josna at the front desk know and they will be right on it. Richmond the GM will give maximum support to the staff to satisfy their guests in every possible way. One day my TV just died in the middle of a good show. Jose’ had my TV replaced in 10 minutes &amp; I enjoyed the rest of my show. You can’t get better service than that anywhere and I don’t care what Star hotel you’re staying at.Honest heartfelt service beats 'plastic face' smiles of the high end hotels every time &amp; at this hotel the smiles &amp; help are for real. I dare any hotel to do better, &amp; we look forward to going back,… they spoiled us, how cool is that? A special thanks to all of you who made it happen.  Les &amp; Wendy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r126717666-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>126717666</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Frequent guest, but the beds are a little too soft</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay (which was for a religious convention at the Anaheim Convention Center &amp; Arena), but the beds need a a bit firming, like tempurpedic firm for those who have sciatica &amp; back/muscle discomfort. The televisions in the rooms have recently been upgraded to flat screen :-), but the DirecTV receivers attached to them need to be upgraded to high definition signals for a stunning view possible, while maintaining costs. Everything elese is an A+ of a job!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r124459004-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>124459004</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay at this hotel was wonderful. The service was extremely friendly and helpful. The room was very clean and well kept. The cleaning service was timely and efficient. The property was clean and attractive. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r119054213-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>119054213</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Front desk people are nice, helpful and quick service, especially Richmond and Eliza.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r117979724-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>117979724</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>The room was great and the service was even better!Josna at the front desk has a way with attentiveness and professionalism that is hard to find</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r116347757-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>116347757</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>Great deal for the price</t>
+  </si>
+  <si>
+    <t>I was skeptical at first due to the reviews but Is not as bad as some people stated. Here are my negatives: no iron, pool was never heated and when we asked for the heater to be turned on the front desk guy got upset sent someone out to "turn it on" but they said it wasn't  working. We also got 3 towels when there were 4 of us. Positives: location, room cleaned daily, parking right in front of the room every day. Breakfast was decent juice, coffee,milk, cereal,bagels, muffins, and Danish  Overall, it was a pleasant stay and I would go again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TorrTravelodge, Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded September 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2011</t>
+  </si>
+  <si>
+    <t>I was skeptical at first due to the reviews but Is not as bad as some people stated. Here are my negatives: no iron, pool was never heated and when we asked for the heater to be turned on the front desk guy got upset sent someone out to "turn it on" but they said it wasn't  working. We also got 3 towels when there were 4 of us. Positives: location, room cleaned daily, parking right in front of the room every day. Breakfast was decent juice, coffee,milk, cereal,bagels, muffins, and Danish  Overall, it was a pleasant stay and I would go again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r108159091-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>108159091</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Not a good feeling...just look around you</t>
+  </si>
+  <si>
+    <t>You have cameras facing your door., and I've had petty things stolen but didn't report it. I just won't stay again. Also  People hang out on the balcony, you are being watched as your entering and exiting your room. The cleaning lady still knocks your door, even there is a Do Not Disturb sign there!   If you want privacy and discretion don't stay here. Some of the hotel staff gossip about customers! So beware! Overall, the rooms are decent,  the sheets feel like paper. And a feeling of uneasyness that creeps over you. And the spa pool is not working there.MoreShow less</t>
+  </si>
+  <si>
+    <t>TorrTravelodge, Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded May 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2011</t>
+  </si>
+  <si>
+    <t>You have cameras facing your door., and I've had petty things stolen but didn't report it. I just won't stay again. Also  People hang out on the balcony, you are being watched as your entering and exiting your room. The cleaning lady still knocks your door, even there is a Do Not Disturb sign there!   If you want privacy and discretion don't stay here. Some of the hotel staff gossip about customers! So beware! Overall, the rooms are decent,  the sheets feel like paper. And a feeling of uneasyness that creeps over you. And the spa pool is not working there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r105091703-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>105091703</t>
+  </si>
+  <si>
+    <t>04/22/2011</t>
+  </si>
+  <si>
+    <t>Very smelly and dirty</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms not near each other. So it wasn't a problem with just one part of the hotel. Every time we entered the rooms, we were greeted with a very overwhelming stuffy moldy smell. The bathroom was even worse. I think it was the shower curtain where the moldy smell was coming from. It was really really bad. The carpet was actually sticky at some places. I have stayed at some very cheap hotels like motel 6, etc. But this one is the worst of the hundreds of hotels I've stayed in. There was no coffee maker in one of the rooms, even though it was advertised. The neighborhood was ok, neither scary not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>TorrTravelodge, Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded April 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2011</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms not near each other. So it wasn't a problem with just one part of the hotel. Every time we entered the rooms, we were greeted with a very overwhelming stuffy moldy smell. The bathroom was even worse. I think it was the shower curtain where the moldy smell was coming from. It was really really bad. The carpet was actually sticky at some places. I have stayed at some very cheap hotels like motel 6, etc. But this one is the worst of the hundreds of hotels I've stayed in. There was no coffee maker in one of the rooms, even though it was advertised. The neighborhood was ok, neither scary not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r85511771-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>85511771</t>
+  </si>
+  <si>
+    <t>10/31/2010</t>
+  </si>
+  <si>
+    <t>Don't stay here, NOT even for the price</t>
+  </si>
+  <si>
+    <t>1. Very low water pressure and cold at that.  Takes forever to brush teeth or wash hands. Had to us hand sanitizer to complete washing of the hands.  Forget about showering -no hot water either.  This should be a basic comodity with any hotel.  Apparently, here it isn't.
+2. We chose this hotel based upon the "Indoor Heated Pool" advertisement. The pool is NOT heated and is partially indoors (like under an awning). When we asked about the heated pool, staff acted as if it was a lot of trouble to turn it on, but they said it would take 1.5 to 2hrs to heat. We checked after 3 hrs and still not heated.  Checked in the morning and still not heated.
+3. Giving the $10 refundable room key deposit was not an issue.  But, when we checked out the girl at the desk acted as if she did not know what we were talking about and said she needed to check on that.  We pointed to their sign taped on top of the desk that clearly stated that there is a "10 refundable room key deposit ".  If you don't remind them you won't get it back.
+4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push...1. Very low water pressure and cold at that.  Takes forever to brush teeth or wash hands. Had to us hand sanitizer to complete washing of the hands.  Forget about showering -no hot water either.  This should be a basic comodity with any hotel.  Apparently, here it isn't.2. We chose this hotel based upon the "Indoor Heated Pool" advertisement. The pool is NOT heated and is partially indoors (like under an awning). When we asked about the heated pool, staff acted as if it was a lot of trouble to turn it on, but they said it would take 1.5 to 2hrs to heat. We checked after 3 hrs and still not heated.  Checked in the morning and still not heated.3. Giving the $10 refundable room key deposit was not an issue.  But, when we checked out the girl at the desk acted as if she did not know what we were talking about and said she needed to check on that.  We pointed to their sign taped on top of the desk that clearly stated that there is a "10 refundable room key deposit ".  If you don't remind them you won't get it back.4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push them back but the way the frame is bolted to the floor or however they stable it, they weren't moving anywhere.5. Hard to get into the parking lot.  If you pass it up, you have to make a U-turn at the next light and you can only get to the hotel if you are headed West otherwise you have to travel to the next stoplight to make a U-turn, pass up the hotel to the next stop and then another U-turn (not turn-in at the middle).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>1. Very low water pressure and cold at that.  Takes forever to brush teeth or wash hands. Had to us hand sanitizer to complete washing of the hands.  Forget about showering -no hot water either.  This should be a basic comodity with any hotel.  Apparently, here it isn't.
+2. We chose this hotel based upon the "Indoor Heated Pool" advertisement. The pool is NOT heated and is partially indoors (like under an awning). When we asked about the heated pool, staff acted as if it was a lot of trouble to turn it on, but they said it would take 1.5 to 2hrs to heat. We checked after 3 hrs and still not heated.  Checked in the morning and still not heated.
+3. Giving the $10 refundable room key deposit was not an issue.  But, when we checked out the girl at the desk acted as if she did not know what we were talking about and said she needed to check on that.  We pointed to their sign taped on top of the desk that clearly stated that there is a "10 refundable room key deposit ".  If you don't remind them you won't get it back.
+4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push...1. Very low water pressure and cold at that.  Takes forever to brush teeth or wash hands. Had to us hand sanitizer to complete washing of the hands.  Forget about showering -no hot water either.  This should be a basic comodity with any hotel.  Apparently, here it isn't.2. We chose this hotel based upon the "Indoor Heated Pool" advertisement. The pool is NOT heated and is partially indoors (like under an awning). When we asked about the heated pool, staff acted as if it was a lot of trouble to turn it on, but they said it would take 1.5 to 2hrs to heat. We checked after 3 hrs and still not heated.  Checked in the morning and still not heated.3. Giving the $10 refundable room key deposit was not an issue.  But, when we checked out the girl at the desk acted as if she did not know what we were talking about and said she needed to check on that.  We pointed to their sign taped on top of the desk that clearly stated that there is a "10 refundable room key deposit ".  If you don't remind them you won't get it back.4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push them back but the way the frame is bolted to the floor or however they stable it, they weren't moving anywhere.5. Hard to get into the parking lot.  If you pass it up, you have to make a U-turn at the next light and you can only get to the hotel if you are headed West otherwise you have to travel to the next stoplight to make a U-turn, pass up the hotel to the next stop and then another U-turn (not turn-in at the middle).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r66447855-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>66447855</t>
+  </si>
+  <si>
+    <t>06/04/2010</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>During my visit to the torrance travelodge recommended this hotel for my visit to disneyland.  The staff was friendly, and the hotel is very clean.  The hotel has free breakfast , wifi and even a jacuzzi room making this a very comfortable  and enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>TorrTravelodge, Manager at Motel 6 Anaheim - Buena Park, responded to this reviewResponded September 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2011</t>
+  </si>
+  <si>
+    <t>During my visit to the torrance travelodge recommended this hotel for my visit to disneyland.  The staff was friendly, and the hotel is very clean.  The hotel has free breakfast , wifi and even a jacuzzi room making this a very comfortable  and enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r65229650-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>65229650</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Exceeded All Expectations</t>
+  </si>
+  <si>
+    <t>Being a SoCal native, I needed to find a place to stay on a recent trip to Disneyland that would give me and my girlfriend a nice place to retreat but still be affordable.  We lucked out with the Travelodge Anaheim.  1) Location: Not only was it close to our premiere destination of Disneyland (a short trip on local streets got us there quickly), but it was also even closer to Knotts Berry Farm and downtown Buena Park, where we found tons of dining selections that were open relatively late.  2) Accommodations:  Spacious, clean, large bed, jacuzzi jet tub, mini-fridge and microwave, plus DirecTv!  Free wireless!  Free continental breakfast!  Free parking!  3) Service: The front desk attendant make checking in and finding our room very easy.  Also, check out was a breeeeze!  Very helpful.  4) Overall Value: Excellent.  For the price, it had so many free perks and was such a positive experience that I would recommend it to any couple or family making it out to SoCal for theme park trips.  We didn't get to check out the pool and the only hiccup was the hot tub was out of commission the night we stayed.  It would also fit my needs as a business traveler with the free wifi, mini-fridge/microwave, and spacious desk. All in all, it exceeded all expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Being a SoCal native, I needed to find a place to stay on a recent trip to Disneyland that would give me and my girlfriend a nice place to retreat but still be affordable.  We lucked out with the Travelodge Anaheim.  1) Location: Not only was it close to our premiere destination of Disneyland (a short trip on local streets got us there quickly), but it was also even closer to Knotts Berry Farm and downtown Buena Park, where we found tons of dining selections that were open relatively late.  2) Accommodations:  Spacious, clean, large bed, jacuzzi jet tub, mini-fridge and microwave, plus DirecTv!  Free wireless!  Free continental breakfast!  Free parking!  3) Service: The front desk attendant make checking in and finding our room very easy.  Also, check out was a breeeeze!  Very helpful.  4) Overall Value: Excellent.  For the price, it had so many free perks and was such a positive experience that I would recommend it to any couple or family making it out to SoCal for theme park trips.  We didn't get to check out the pool and the only hiccup was the hot tub was out of commission the night we stayed.  It would also fit my needs as a business traveler with the free wifi, mini-fridge/microwave, and spacious desk. All in all, it exceeded all expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r40467576-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>40467576</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>Decent place for low-budget trips</t>
+  </si>
+  <si>
+    <t>The place was a good deal for what we paid. We only stayed 2 nights and we didn't expect much of it, but overall the room was decent. The general cleanliness was doubtful - dirt stains on the bathroom door, worn out carpet and old furniture. But the bed sheets and towels were clean, the beds were comfy and everything in the room was functional: AC, TV, refrigerator, microwave, coffee maker, etc. The pressure of the hot water in the shower was low, but just enough to take a quick shower. Very simple breakfast (2 types of cereal, muffins and fruit, tea, coffee, orange juice and milk) but it's nice to be able to grab a bite in the morning.The staff were very, very friendly and helpful and that's a great plus for the hotel.You get what you paid for, which is not much, but remember that the price is $20-30 less than other hotels per night. Maybe not suited for people who have high expectations, but if you're on a low-budget trip to Disneyland and only need a place to sleep and take a shower, I would definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>The place was a good deal for what we paid. We only stayed 2 nights and we didn't expect much of it, but overall the room was decent. The general cleanliness was doubtful - dirt stains on the bathroom door, worn out carpet and old furniture. But the bed sheets and towels were clean, the beds were comfy and everything in the room was functional: AC, TV, refrigerator, microwave, coffee maker, etc. The pressure of the hot water in the shower was low, but just enough to take a quick shower. Very simple breakfast (2 types of cereal, muffins and fruit, tea, coffee, orange juice and milk) but it's nice to be able to grab a bite in the morning.The staff were very, very friendly and helpful and that's a great plus for the hotel.You get what you paid for, which is not much, but remember that the price is $20-30 less than other hotels per night. Maybe not suited for people who have high expectations, but if you're on a low-budget trip to Disneyland and only need a place to sleep and take a shower, I would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r26069206-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>26069206</t>
+  </si>
+  <si>
+    <t>03/12/2009</t>
+  </si>
+  <si>
+    <t>will stay again next visit to california</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and clean with new mattresses and new furniture.  The front office is very welcoming.  All the staff are warm and friendly.  They were really patient in giving us directions and info on what to do in the area since we have little kids.  It is about 5 miles away from disneyland but for the price that we paid and service that we got, it was worth every penny!    They have been doing renovation and I can't wait for our trip next year.  We plan to stay in this hotel over and over again.  And I'm sure that my family agrees with me too.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r24401213-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>24401213</t>
+  </si>
+  <si>
+    <t>02/09/2009</t>
+  </si>
+  <si>
+    <t>Customer Service???</t>
+  </si>
+  <si>
+    <t>I was suppose to stay at this hotel, but in error we went to the other travelodge closer to the Convention Center, the reason for our trip.  When we found out the error and they told us that we were at the wrong hotel, the front desk at the new hotel sold us a room at their location, called the other hotel and told them to waive our cancel penalty as they had sold us a room.  We were assured this was done.  Afterwards, my credit card bill showed the charge for the cancellation at this hotel, that we were told would be waived since we stayed at a different Travelodge.  
+Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160...I was suppose to stay at this hotel, but in error we went to the other travelodge closer to the Convention Center, the reason for our trip.  When we found out the error and they told us that we were at the wrong hotel, the front desk at the new hotel sold us a room at their location, called the other hotel and told them to waive our cancel penalty as they had sold us a room.  We were assured this was done.  Afterwards, my credit card bill showed the charge for the cancellation at this hotel, that we were told would be waived since we stayed at a different Travelodge.  Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160 is worth the bad press to them, fine, but honestly they should honor what they told the hotel clerk at the other travelodge.  The manager here was rude and was completely NOT comprimising.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I was suppose to stay at this hotel, but in error we went to the other travelodge closer to the Convention Center, the reason for our trip.  When we found out the error and they told us that we were at the wrong hotel, the front desk at the new hotel sold us a room at their location, called the other hotel and told them to waive our cancel penalty as they had sold us a room.  We were assured this was done.  Afterwards, my credit card bill showed the charge for the cancellation at this hotel, that we were told would be waived since we stayed at a different Travelodge.  
+Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160...I was suppose to stay at this hotel, but in error we went to the other travelodge closer to the Convention Center, the reason for our trip.  When we found out the error and they told us that we were at the wrong hotel, the front desk at the new hotel sold us a room at their location, called the other hotel and told them to waive our cancel penalty as they had sold us a room.  We were assured this was done.  Afterwards, my credit card bill showed the charge for the cancellation at this hotel, that we were told would be waived since we stayed at a different Travelodge.  Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160 is worth the bad press to them, fine, but honestly they should honor what they told the hotel clerk at the other travelodge.  The manager here was rude and was completely NOT comprimising.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r19939393-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>19939393</t>
+  </si>
+  <si>
+    <t>09/09/2008</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t>Family of five in two rooms travelling from the Uk and just needed one night in this area.As ever, you get what you pay for. We just wanted somewhere to sleep before continuing our holiday and therefore it more than met our requirments.Rooms weren't too bad at all and up to the standard you would expect of Travelodge. If you want 5 star then book 5 star.The rooms were clean and spacious and the hotel staff we met were very friendly, helpful and polite.If you are looking for Travelodge type hotel in this area then it is worth considering. I would use it again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r6135176-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>6135176</t>
+  </si>
+  <si>
+    <t>11/14/2006</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>The hotel is OK. Stay away if you are a picky person, the rooms are old and very used, but the price is good if you just want a place to sleep after having fun in Disneyland. The shower was the only terrible thing, no pressure at all. And the breakfast is just coffee, orange juice and some muffins that didn't look tasty at all. But since you have a refrigerator and microwave just stop by Walmart and get you something better. I would recommend it, but remember you are getting what you paid for.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r5772967-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>5772967</t>
+  </si>
+  <si>
+    <t>09/04/2006</t>
+  </si>
+  <si>
+    <t>It's just okay</t>
+  </si>
+  <si>
+    <t>The good: Clean room, friendly staff.The not so good: a bit far from Disneyland but is still within a reasonable distance by bus. The staff will explain how to get there.</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r4949180-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4949180</t>
+  </si>
+  <si>
+    <t>04/06/2006</t>
+  </si>
+  <si>
+    <t>Very Congenial Staff</t>
+  </si>
+  <si>
+    <t>Visited as 2 adults and 3 children, for 8 days. Recommend for good value for cost.Pro: 1. Very friendly staff and driver.2. Drove family to disney park since shuttle had been cancelled.3. Basic but clean and large room - 2 Queen beds.4. Easy route to come and go if you have a rental car as we did for 2 days.5. Convenient kid's heated inside pool - open 9 to 9, but they were flexible afer hours if asked.Con: 1. The daily shuttle to Disney had been cancelled for a mysterious reason and was not relayed to us before arriving.2. Not many choices of shopping or restaurants if walking from the Travelodge, just a couple of small strip malls a few blocks away.3. Don't expect more breakfast than pastries/muffins and juice and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited as 2 adults and 3 children, for 8 days. Recommend for good value for cost.Pro: 1. Very friendly staff and driver.2. Drove family to disney park since shuttle had been cancelled.3. Basic but clean and large room - 2 Queen beds.4. Easy route to come and go if you have a rental car as we did for 2 days.5. Convenient kid's heated inside pool - open 9 to 9, but they were flexible afer hours if asked.Con: 1. The daily shuttle to Disney had been cancelled for a mysterious reason and was not relayed to us before arriving.2. Not many choices of shopping or restaurants if walking from the Travelodge, just a couple of small strip malls a few blocks away.3. Don't expect more breakfast than pastries/muffins and juice and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r4253613-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>4253613</t>
+  </si>
+  <si>
+    <t>12/19/2005</t>
+  </si>
+  <si>
+    <t>I would not go back.</t>
+  </si>
+  <si>
+    <t>I reserved this room for two nights, after the first 30 minutes I was ready to take the loss and find a different hotel.  The room smelled terrible, the linens were extremely worn, and overall had the apperance of not being well kept.  The staff seemed friendly but when I returned after being gone for the day the room was exactly as I had left it.  they did not clean the room, no fresh towels, trash was not emptied, etc, etc.  My wife and I felt a bit unsure about the place and felt it was just best to leave. This hotel was booked through Priceline.com and my next contact will be to inform them how terrible our stay was even though Priceline had recommended this hotel.  I would never stay at this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I reserved this room for two nights, after the first 30 minutes I was ready to take the loss and find a different hotel.  The room smelled terrible, the linens were extremely worn, and overall had the apperance of not being well kept.  The staff seemed friendly but when I returned after being gone for the day the room was exactly as I had left it.  they did not clean the room, no fresh towels, trash was not emptied, etc, etc.  My wife and I felt a bit unsure about the place and felt it was just best to leave. This hotel was booked through Priceline.com and my next contact will be to inform them how terrible our stay was even though Priceline had recommended this hotel.  I would never stay at this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r3433469-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>3433469</t>
+  </si>
+  <si>
+    <t>05/01/2005</t>
+  </si>
+  <si>
+    <t>Medium Quality for a Moderate Price</t>
+  </si>
+  <si>
+    <t>We had read the earlier reviews before booking and expected more, but overall weren't too disappointed, but we'll try to find something better next time.  The room was clean and the location was good for us, but the outside could look better and when people roll their suitcases along the concrete outdoor hallways, it feels and sounds like an earthquake.  This seemed to happen all times of the night too.  Not very quiet in other respects either.  Still, we've been in worse (and better).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r3341161-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>3341161</t>
+  </si>
+  <si>
+    <t>04/06/2005</t>
+  </si>
+  <si>
+    <t>Decent Room for the Price</t>
+  </si>
+  <si>
+    <t>We had a good, basic room for the price.  We stayed one night after coming from four nights at the Anaheim Hilton.  Our room (#301) was large with two queen beds, a full-sized computer desk, microwave and refrig--none of which our Concierge Level Hilton room had.  The bathroom was on the smallish side, with only one sink.  The room came with a Continental breakfast and a Los Angeles Times for 13 cents, which if you refused it, could be credited to your account.  The room was rather stark with bright, white walls and little artwork, but the front desk clerk, Octavio, was very friendly, and the housekeeping staff willingly gave us extra towels.  The indoor swimming pool looked very murky and cloudy.  Our room was on the top floor on the Beach Boulevard side, and there was a lot of traffic noise all night.  If you are a light sleeper, ask for a different room.  Knott's Berry Farm is just up the street on the way to the freeway, but Disneyland is pretty distant.  You can get there either on the freeway or surface streets, but if you have traffic, it could take quite awhile to get there.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a good, basic room for the price.  We stayed one night after coming from four nights at the Anaheim Hilton.  Our room (#301) was large with two queen beds, a full-sized computer desk, microwave and refrig--none of which our Concierge Level Hilton room had.  The bathroom was on the smallish side, with only one sink.  The room came with a Continental breakfast and a Los Angeles Times for 13 cents, which if you refused it, could be credited to your account.  The room was rather stark with bright, white walls and little artwork, but the front desk clerk, Octavio, was very friendly, and the housekeeping staff willingly gave us extra towels.  The indoor swimming pool looked very murky and cloudy.  Our room was on the top floor on the Beach Boulevard side, and there was a lot of traffic noise all night.  If you are a light sleeper, ask for a different room.  Knott's Berry Farm is just up the street on the way to the freeway, but Disneyland is pretty distant.  You can get there either on the freeway or surface streets, but if you have traffic, it could take quite awhile to get there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r2509741-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>2509741</t>
+  </si>
+  <si>
+    <t>09/01/2004</t>
+  </si>
+  <si>
+    <t>Loved the Travelodge on Beach Blvd!</t>
+  </si>
+  <si>
+    <t>I completely agree with the last two reviews-this hotel was superb- superb customer service, superb cleanliness, superb price, and most of all superb location!!! I stayed there and talked to the new owners-they completely renovated everything and put completely different managment in place which may explain the earlier reviews. I had a great time-and recommend to any and all travelers in the LA area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r1154392-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1154392</t>
+  </si>
+  <si>
+    <t>07/29/2003</t>
+  </si>
+  <si>
+    <t>Great Hotel! Value for Money</t>
+  </si>
+  <si>
+    <t>I have stayed in other Travelodge and other Hotels and this one is definitely the best hotel I ever stayed at. Rooms were well maintained and staff were very warm and helpful. I recommend this to all travelers going to Anaheim.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r1140172-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1140172</t>
+  </si>
+  <si>
+    <t>07/19/2003</t>
+  </si>
+  <si>
+    <t>The worst Hotel I have stayed at</t>
+  </si>
+  <si>
+    <t>This hotel was very dirty, the staff was not helpful with anything.I complained to Travelodge Corp. and they refunded the amount of my stay even though it was a franchise location.I have never had a problem with Travelodge Hotels and the Corp office has won my loyalty to keep staying at other Travelodge Hotels.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2380,7214 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>147</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>231</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>231</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" t="s">
+        <v>241</v>
+      </c>
+      <c r="L41" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>231</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" t="s">
+        <v>245</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>246</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>255</v>
+      </c>
+      <c r="J45" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>257</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>257</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47" t="s">
+        <v>263</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>257</v>
+      </c>
+      <c r="O47" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" t="s">
+        <v>267</v>
+      </c>
+      <c r="L48" t="s">
+        <v>268</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>257</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>270</v>
+      </c>
+      <c r="J49" t="s">
+        <v>271</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>274</v>
+      </c>
+      <c r="J50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>276</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>278</v>
+      </c>
+      <c r="J51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>276</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J52" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>286</v>
+      </c>
+      <c r="J53" t="s">
+        <v>287</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>288</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" t="s">
+        <v>287</v>
+      </c>
+      <c r="K54" t="s">
+        <v>291</v>
+      </c>
+      <c r="L54" t="s">
+        <v>292</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>288</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>295</v>
+      </c>
+      <c r="J55" t="s">
+        <v>296</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>288</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>298</v>
+      </c>
+      <c r="J56" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>300</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>302</v>
+      </c>
+      <c r="J57" t="s">
+        <v>303</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>300</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>305</v>
+      </c>
+      <c r="J58" t="s">
+        <v>306</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>288</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" t="s">
+        <v>309</v>
+      </c>
+      <c r="K59" t="s">
+        <v>310</v>
+      </c>
+      <c r="L59" t="s">
+        <v>311</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>300</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>312</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>313</v>
+      </c>
+      <c r="J60" t="s">
+        <v>314</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>300</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>315</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" t="s">
+        <v>317</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>300</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>318</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>319</v>
+      </c>
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>321</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>323</v>
+      </c>
+      <c r="J63" t="s">
+        <v>324</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>321</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>326</v>
+      </c>
+      <c r="J64" t="s">
+        <v>327</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>321</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>329</v>
+      </c>
+      <c r="J65" t="s">
+        <v>330</v>
+      </c>
+      <c r="K65" t="s">
+        <v>331</v>
+      </c>
+      <c r="L65" t="s">
+        <v>332</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>333</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>335</v>
+      </c>
+      <c r="J66" t="s">
+        <v>336</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>337</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>339</v>
+      </c>
+      <c r="J67" t="s">
+        <v>340</v>
+      </c>
+      <c r="K67" t="s">
+        <v>341</v>
+      </c>
+      <c r="L67" t="s">
+        <v>342</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>337</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>344</v>
+      </c>
+      <c r="J68" t="s">
+        <v>345</v>
+      </c>
+      <c r="K68" t="s">
+        <v>346</v>
+      </c>
+      <c r="L68" t="s">
+        <v>347</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>333</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>350</v>
+      </c>
+      <c r="J69" t="s">
+        <v>351</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>352</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>353</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" t="s">
+        <v>355</v>
+      </c>
+      <c r="K70" t="s">
+        <v>356</v>
+      </c>
+      <c r="L70" t="s">
+        <v>357</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>352</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>358</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>359</v>
+      </c>
+      <c r="J71" t="s">
+        <v>360</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>352</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>362</v>
+      </c>
+      <c r="J72" t="s">
+        <v>363</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>364</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>365</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>366</v>
+      </c>
+      <c r="J73" t="s">
+        <v>367</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>364</v>
+      </c>
+      <c r="O73" t="s">
+        <v>123</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>368</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>369</v>
+      </c>
+      <c r="J74" t="s">
+        <v>370</v>
+      </c>
+      <c r="K74" t="s">
+        <v>371</v>
+      </c>
+      <c r="L74" t="s">
+        <v>372</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>364</v>
+      </c>
+      <c r="O74" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>375</v>
+      </c>
+      <c r="J75" t="s">
+        <v>376</v>
+      </c>
+      <c r="K75" t="s">
+        <v>377</v>
+      </c>
+      <c r="L75" t="s">
+        <v>378</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>379</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>381</v>
+      </c>
+      <c r="J76" t="s">
+        <v>382</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>383</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>384</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>385</v>
+      </c>
+      <c r="J77" t="s">
+        <v>386</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>387</v>
+      </c>
+      <c r="O77" t="s">
+        <v>87</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>388</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>389</v>
+      </c>
+      <c r="J78" t="s">
+        <v>390</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>333</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>391</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>392</v>
+      </c>
+      <c r="J79" t="s">
+        <v>393</v>
+      </c>
+      <c r="K79" t="s">
+        <v>394</v>
+      </c>
+      <c r="L79" t="s">
+        <v>395</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>396</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>397</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>398</v>
+      </c>
+      <c r="J80" t="s">
+        <v>399</v>
+      </c>
+      <c r="K80" t="s">
+        <v>400</v>
+      </c>
+      <c r="L80" t="s">
+        <v>401</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>402</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>404</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>405</v>
+      </c>
+      <c r="J81" t="s">
+        <v>406</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>402</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>407</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>408</v>
+      </c>
+      <c r="J82" t="s">
+        <v>409</v>
+      </c>
+      <c r="K82" t="s">
+        <v>410</v>
+      </c>
+      <c r="L82" t="s">
+        <v>411</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>396</v>
+      </c>
+      <c r="O82" t="s">
+        <v>123</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>413</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>414</v>
+      </c>
+      <c r="J83" t="s">
+        <v>415</v>
+      </c>
+      <c r="K83" t="s">
+        <v>416</v>
+      </c>
+      <c r="L83" t="s">
+        <v>417</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>402</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>418</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>419</v>
+      </c>
+      <c r="J84" t="s">
+        <v>420</v>
+      </c>
+      <c r="K84" t="s">
+        <v>421</v>
+      </c>
+      <c r="L84" t="s">
+        <v>422</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>402</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>424</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>425</v>
+      </c>
+      <c r="J85" t="s">
+        <v>420</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>402</v>
+      </c>
+      <c r="O85" t="s">
+        <v>123</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>426</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>427</v>
+      </c>
+      <c r="J86" t="s">
+        <v>428</v>
+      </c>
+      <c r="K86" t="s">
+        <v>429</v>
+      </c>
+      <c r="L86" t="s">
+        <v>430</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>431</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>433</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>434</v>
+      </c>
+      <c r="J87" t="s">
+        <v>428</v>
+      </c>
+      <c r="K87" t="s">
+        <v>435</v>
+      </c>
+      <c r="L87" t="s">
+        <v>436</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>431</v>
+      </c>
+      <c r="O87" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>439</v>
+      </c>
+      <c r="J88" t="s">
+        <v>440</v>
+      </c>
+      <c r="K88" t="s">
+        <v>441</v>
+      </c>
+      <c r="L88" t="s">
+        <v>442</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>443</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>444</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>445</v>
+      </c>
+      <c r="J89" t="s">
+        <v>446</v>
+      </c>
+      <c r="K89" t="s">
+        <v>447</v>
+      </c>
+      <c r="L89" t="s">
+        <v>448</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>449</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>450</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>451</v>
+      </c>
+      <c r="J90" t="s">
+        <v>452</v>
+      </c>
+      <c r="K90" t="s">
+        <v>453</v>
+      </c>
+      <c r="L90" t="s">
+        <v>454</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>455</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>457</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>458</v>
+      </c>
+      <c r="J91" t="s">
+        <v>459</v>
+      </c>
+      <c r="K91" t="s">
+        <v>460</v>
+      </c>
+      <c r="L91" t="s">
+        <v>461</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>455</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>463</v>
+      </c>
+      <c r="J92" t="s">
+        <v>464</v>
+      </c>
+      <c r="K92" t="s">
+        <v>465</v>
+      </c>
+      <c r="L92" t="s">
+        <v>466</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>467</v>
+      </c>
+      <c r="O92" t="s">
+        <v>103</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>470</v>
+      </c>
+      <c r="J93" t="s">
+        <v>471</v>
+      </c>
+      <c r="K93" t="s">
+        <v>472</v>
+      </c>
+      <c r="L93" t="s">
+        <v>473</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>474</v>
+      </c>
+      <c r="O93" t="s">
+        <v>103</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>475</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>476</v>
+      </c>
+      <c r="J94" t="s">
+        <v>477</v>
+      </c>
+      <c r="K94" t="s">
+        <v>478</v>
+      </c>
+      <c r="L94" t="s">
+        <v>479</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>480</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>481</v>
+      </c>
+      <c r="J95" t="s">
+        <v>482</v>
+      </c>
+      <c r="K95" t="s">
+        <v>483</v>
+      </c>
+      <c r="L95" t="s">
+        <v>484</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>485</v>
+      </c>
+      <c r="O95" t="s">
+        <v>123</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>486</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>487</v>
+      </c>
+      <c r="J96" t="s">
+        <v>488</v>
+      </c>
+      <c r="K96" t="s">
+        <v>489</v>
+      </c>
+      <c r="L96" t="s">
+        <v>490</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>491</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>492</v>
+      </c>
+      <c r="J97" t="s">
+        <v>493</v>
+      </c>
+      <c r="K97" t="s">
+        <v>494</v>
+      </c>
+      <c r="L97" t="s">
+        <v>495</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>449</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>496</v>
+      </c>
+      <c r="X97" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>499</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>500</v>
+      </c>
+      <c r="J98" t="s">
+        <v>501</v>
+      </c>
+      <c r="K98" t="s">
+        <v>502</v>
+      </c>
+      <c r="L98" t="s">
+        <v>503</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>504</v>
+      </c>
+      <c r="X98" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>507</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>508</v>
+      </c>
+      <c r="J99" t="s">
+        <v>509</v>
+      </c>
+      <c r="K99" t="s">
+        <v>510</v>
+      </c>
+      <c r="L99" t="s">
+        <v>511</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>512</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>513</v>
+      </c>
+      <c r="X99" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>516</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>517</v>
+      </c>
+      <c r="J100" t="s">
+        <v>518</v>
+      </c>
+      <c r="K100" t="s">
+        <v>519</v>
+      </c>
+      <c r="L100" t="s">
+        <v>520</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>521</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>523</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>524</v>
+      </c>
+      <c r="J101" t="s">
+        <v>525</v>
+      </c>
+      <c r="K101" t="s">
+        <v>526</v>
+      </c>
+      <c r="L101" t="s">
+        <v>527</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>528</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>529</v>
+      </c>
+      <c r="X101" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>532</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>533</v>
+      </c>
+      <c r="J102" t="s">
+        <v>534</v>
+      </c>
+      <c r="K102" t="s">
+        <v>535</v>
+      </c>
+      <c r="L102" t="s">
+        <v>536</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>537</v>
+      </c>
+      <c r="O102" t="s">
+        <v>123</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>529</v>
+      </c>
+      <c r="X102" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>539</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>540</v>
+      </c>
+      <c r="J103" t="s">
+        <v>541</v>
+      </c>
+      <c r="K103" t="s">
+        <v>542</v>
+      </c>
+      <c r="L103" t="s">
+        <v>543</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>544</v>
+      </c>
+      <c r="O103" t="s">
+        <v>123</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>546</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>547</v>
+      </c>
+      <c r="J104" t="s">
+        <v>548</v>
+      </c>
+      <c r="K104" t="s">
+        <v>549</v>
+      </c>
+      <c r="L104" t="s">
+        <v>550</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>551</v>
+      </c>
+      <c r="O104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>552</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>553</v>
+      </c>
+      <c r="J105" t="s">
+        <v>554</v>
+      </c>
+      <c r="K105" t="s">
+        <v>555</v>
+      </c>
+      <c r="L105" t="s">
+        <v>556</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>557</v>
+      </c>
+      <c r="O105" t="s">
+        <v>103</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>559</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>560</v>
+      </c>
+      <c r="J106" t="s">
+        <v>561</v>
+      </c>
+      <c r="K106" t="s">
+        <v>562</v>
+      </c>
+      <c r="L106" t="s">
+        <v>563</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>564</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>565</v>
+      </c>
+      <c r="J107" t="s">
+        <v>566</v>
+      </c>
+      <c r="K107" t="s">
+        <v>567</v>
+      </c>
+      <c r="L107" t="s">
+        <v>568</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>569</v>
+      </c>
+      <c r="O107" t="s">
+        <v>123</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>570</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>571</v>
+      </c>
+      <c r="J108" t="s">
+        <v>572</v>
+      </c>
+      <c r="K108" t="s">
+        <v>573</v>
+      </c>
+      <c r="L108" t="s">
+        <v>574</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>575</v>
+      </c>
+      <c r="O108" t="s">
+        <v>87</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>576</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>577</v>
+      </c>
+      <c r="J109" t="s">
+        <v>578</v>
+      </c>
+      <c r="K109" t="s">
+        <v>579</v>
+      </c>
+      <c r="L109" t="s">
+        <v>580</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>582</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>583</v>
+      </c>
+      <c r="J110" t="s">
+        <v>584</v>
+      </c>
+      <c r="K110" t="s">
+        <v>585</v>
+      </c>
+      <c r="L110" t="s">
+        <v>586</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>588</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>589</v>
+      </c>
+      <c r="J111" t="s">
+        <v>590</v>
+      </c>
+      <c r="K111" t="s">
+        <v>591</v>
+      </c>
+      <c r="L111" t="s">
+        <v>592</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>3</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>593</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>594</v>
+      </c>
+      <c r="J112" t="s">
+        <v>595</v>
+      </c>
+      <c r="K112" t="s">
+        <v>596</v>
+      </c>
+      <c r="L112" t="s">
+        <v>597</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>599</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>600</v>
+      </c>
+      <c r="J113" t="s">
+        <v>601</v>
+      </c>
+      <c r="K113" t="s">
+        <v>602</v>
+      </c>
+      <c r="L113" t="s">
+        <v>603</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>604</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>605</v>
+      </c>
+      <c r="J114" t="s">
+        <v>606</v>
+      </c>
+      <c r="K114" t="s">
+        <v>607</v>
+      </c>
+      <c r="L114" t="s">
+        <v>608</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>18194</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>609</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>610</v>
+      </c>
+      <c r="J115" t="s">
+        <v>611</v>
+      </c>
+      <c r="K115" t="s">
+        <v>612</v>
+      </c>
+      <c r="L115" t="s">
+        <v>613</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Aaron K</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The price of the hotel is awesome. the room was not too bad it had some burn marks on the comforter on the bed but other than that it was a pretty good stay.  If you do stay at this location go to sleep at 10 if you go to sleep earlier you will hear the fireworks sometimes sirens from the street  but it seems that it quiets down at 10pm.More</t>
   </si>
   <si>
+    <t>Doris Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r378796523-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>In any room in this hotel you can hear the traffic from the highway and all hours of the night druggies were running the halls. We had a terrible sewer gas leak in our room. It wad a Terrible stay all around. The office gave us a discount for our bad stay. Kudos to the staff.More</t>
   </si>
   <si>
+    <t>Eduardo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r373939748-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>This is a very modest hotel very suited if you are planning to go to Disney park and return to the hotel for sleeping and start over the next day. It is very close to Disney entrance, about 5 minutes by car. and of course it is cheapMore</t>
   </si>
   <si>
+    <t>Christine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r295474665-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>The front desk is very friendly and helpful. The rooms are very relaxing and gives you a at home kind of feeling.Also have a microwave and refrigerator.They are dog friendly no matter what size and have a dog area. Never seen any bugs here ever.</t>
   </si>
   <si>
+    <t>Jules C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r283399209-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>fresnonittanylion</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r281971789-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>Last minute trip booked her for something cheaper. The rooms here have not been redone yet as it use to be a Travelodge. Plus items microwave, Refrigerator, good WiFi, TV had direct TV was good quality quite a few channels HBO and Cinemax. Rooms were big did not have carpet which was nice. The room itself was clean and the outside was kept nice nothing special. The minus items. Not sure how the vent for the exhaust fans in the bathrooms are connected but you could smell smoke sometimes from other rooms that allowed smoking. One time it was someone smoking Marijuana. Management might want to clarify what a smoking room allows. Not sure if they are ok with people smoking Marijuana in the rooms. It is a descent budget motel but you need to remember when booking it is low budget. One thing I have noticed with Motel 6 they seem to have permanent guests living there. In closing i would stay here again if i was looking for a super cheap place to stay however if your willing to spend 50 dollars more for a couple nights stay you can do much better. Also it is about a 15 to 18 minute  drive to Mickey and friends parking garage from here and just down the street from Knotts. Plenty of fast food in the area and other sit down restaurants but you need to drive. More</t>
   </si>
   <si>
+    <t>Jeffery H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r255122769-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Reenah T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r254811686-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>The entrance looked a little dark, the front desk greeted me cold until my fiance walked in and he welcomed her with open arms. We got our Room towards the back off the lot, logged that it was downstairs, opened room and it was nice love that it came with a fridge and a microwave. Toilet was a little dirty and shower the bottom of the inside made new shower in my sandals. Coffee machine didn't work , AC was on point to. Customer service needs a little work, asked for towels and didn't get any but was so tired from a long day of driving and work that neither myself nor my fiance wanted to stay calling the front for towels and cups since there weren't any in our Room. More</t>
   </si>
   <si>
+    <t>Laurel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r253598889-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Jessica K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r250825847-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>I read reviews, and was a little worried. I ended up being surprised. It was clean, the beds were comfy, the room was smell free. The bathroom had some wear to it, but no worse than the average bathroom. A mile from knotts, midevil times, and pirates. About 3 miles from Disneyland. Easy drive. I remember reading that the staff wasn't nice... They were very nice. I had no issues at all,and they answered my questions just fine.the breakfast was very very basic, cereal, milk, coffee juice and pasteries... I like cereal so I was contempt. Free food is free food.</t>
   </si>
   <si>
+    <t>klscott98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r247656589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>skylaf2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r246271703-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>495josepha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r244880288-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>12/17/2014</t>
   </si>
   <si>
+    <t>svgomez1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r242846158-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>Lies about price of room and then said they could do nothing to fix it and made us call the national line and try and get it fixed and of course no one helped us and we were stuck at this hell hole overpriced piece of bull!!! Never again WYNDHAM next of our frequent visits to buena park we will be back at our favorite place BEST HOST INN, LOOK IT UP PEOPLE YOU WONT BE SORRY!!! BEST CUSTOMER SERVICE AND STAFF YOU'LL FIND AT A GREAT PRICE, NEW ROOMS AND A FULL HOT BREAKFAST!!! CADDY CORNER TO KNOTTS BERRY FARM !!</t>
   </si>
   <si>
+    <t>michaelv46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r242844980-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>They lied about the price of our room and made the deal sound so great we cancelled our other reservations at a choice hotel chain, only to arrive and be charged a higher price and called the national line to have it fixed only to be put on hold and be passed along to the next operator who never answered,and when someone from the national line found us another room ,we couldn't get it cause they had already charged my card even when i refused to sign the reciept! So we were stuck and had to pay the 40 dollars extra for a crappy hotel from a crappy hotel chain WYNDHAM,and we didn't even get our point as reward members??? Hell at choice hotel chain after our first 2 stays we earned a 50 gas card!!!! Never Again will we stay at a WYNDHAM PROPERTY..........WE ARE NOW A CHOICE HOTEL CHAIN FAMILY!!! WYNDHAM IS FULL OF LIES AND FALSE ADVERTISING!!More</t>
   </si>
   <si>
+    <t>alyseH31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r241347534-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>First this hotel looks nothing like the pictures on its web page. The website is very miss leading. Second the rooms were very low quality. We came back to our room and they had not cleaned it. The beds were not made, trash cans still full, no clean towels. We went to the office and told them, all they could say was well it said it was cleaned and there was not much they could do. Third get to breakfast early if you actually stay there. We went down at 8 am and there was not food left. The person at the desk said they only have a set amount of food and they would not put out anymore. Lastly if you enjoy drug deals and the police in the parking lot then this is the place for you. I would not  recommend staying here.More</t>
   </si>
   <si>
+    <t>372krystlem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r240615422-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Stacy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r239553646-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -483,6 +537,9 @@
     <t>Our room reeked of cigarettes even though it was a non smoking room. The sink was clogged.No conditioner.The bed spreads were dirty.The carpet was so stained and dirty it turned out feet black.We called at midnight because our smoke alarm was chirping, they said they would bring us a battery but an hour later we walked down to get one and they claimed they forgot, even though the guy was just playing on his phone. The second battery didn't stop the chirping, we complained again and got no response. We asked for the manager to contact us 3 different times and never got a call the 3 days we were there. There were sketchy men in the parking lot all night long.Wifi didn't work.Worst hotel I've ever stayed in.More</t>
   </si>
   <si>
+    <t>neonxxx78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r232644188-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -498,6 +555,9 @@
     <t>Nice stay near disneyland and we booked two rooms next to each other. The only complaint was my room was smell of cigarettes and the other room smelled of beer spills. They clean the room the next day but the smells keep coming back but they tidy up the room everyday. Breakfast comes with the room but not many choices also we found that some cartons of milk already over use by date inside the fridge. Other than that the room was quite clean and the bed was comfortable for cheap rates. Also there is a free wifi to use in hotel room.</t>
   </si>
   <si>
+    <t>Juliana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r231696712-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -507,6 +567,9 @@
     <t>09/29/2014</t>
   </si>
   <si>
+    <t>Anna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r230097796-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -516,6 +579,9 @@
     <t>09/21/2014</t>
   </si>
   <si>
+    <t>Carole B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r223307116-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -534,6 +600,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Monica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r221295589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -549,6 +618,9 @@
     <t xml:space="preserve">Clean, quite and very nice customer service! However, the furniture was old, and scuffed. However did have a newer model, flat screen TV. Very comfortable thick mattress, with lots of pillows. Refridgerator was wobbly, since it was missing a leg, but worked perfectly. Did not like that the pool closed at 9pm. The pool water could've been clearer.  </t>
   </si>
   <si>
+    <t>P D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r221098135-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -561,6 +633,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Kim I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r217522792-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -576,6 +651,9 @@
     <t>Miss representation on the outside bill board that there was a jacuzzi.  There wasn't one. The room wasnt ready when we got there and had to wait 45 minutes longer and the smell when we opened the door to the room stunk so bad I almost throw up. There was a bag over the smoke detector. And the pool was disgusting. And the coffee pot didnt work!!! No I would not refer anyone to stay there.</t>
   </si>
   <si>
+    <t>Alejandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r215791558-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -585,6 +663,9 @@
     <t>07/16/2014</t>
   </si>
   <si>
+    <t>Jose Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r214585417-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -594,6 +675,9 @@
     <t>07/09/2014</t>
   </si>
   <si>
+    <t>Tracee W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209817141-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -606,6 +690,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Raymond F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209812460-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -618,10 +705,16 @@
     <t>Pros-soft bed-nice flat screen tv and hbo-quit neighborhoodCons-non smoking room smells like smoking room-hotel looks very old</t>
   </si>
   <si>
+    <t>Ramirez L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r209806183-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
     <t>209806183</t>
+  </si>
+  <si>
+    <t>seaturtle_808</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r205352117-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
@@ -655,6 +748,9 @@
 Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed...I'm reviewing this hotel based on the fact it was $50/night for weekend dates when most hotels were $100+ in the area.Very easy to find hotel, big sign, can't really miss it. Hotel is about 5 minutes from Knott's Berry's front gate, 15 minutes from Disneyland parking lot. There are plenty of gas stations, convenience stores, and restaurants nearby.Front desk girl was friendly enough upon check-in, chatted about the weather, gave me my room key and the free wifi password. I was placed on the 3rd floor (I didn't see an elevator) all the way in the back of the property... which was a little sketchy. There's some older cars/taxis parked in the back that look like they've been there quite some time. Also seemed like possibly some rooms were being lived in like an apartment instead of a short hotel-stay. There was still plenty of parking.The room was basic, sink and mirror were dirty the first day and were cleaned on the second. There's a kitchenette with microwave, mini-fridge and hot plate. Didn't use it but it was nice it was there. Water pressure in shower was fine, complimentary shampoo was awful (but it's a Travelodge so I didn't expect much there). Towels were clean.TV worked, bed was comfortable, A/C did the job nicely.Overall it was great for a cheap room near Disneyland or Knott's Berry. I would stay there again if I needed something affordable and I'd recommend it to people as well... just make sure your expectations are realistic with the price!More</t>
   </si>
   <si>
+    <t>p k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r204461741-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -670,12 +766,18 @@
     <t>ok for 2 star hotel. older hotel,rug could have been better vacuumed. bathroom was spotless,all amenities worked. free hbo. high carb 'breakfast'. aaa rated.</t>
   </si>
   <si>
+    <t>Veera R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r204454646-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
     <t>204454646</t>
   </si>
   <si>
+    <t>Camelia N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r203313322-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -694,6 +796,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Maren S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r202285588-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -703,6 +808,9 @@
     <t>04/22/2014</t>
   </si>
   <si>
+    <t>Rhonda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r201123210-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -712,6 +820,9 @@
     <t>04/14/2014</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199659019-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -724,6 +835,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Jim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199566377-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -733,6 +847,9 @@
     <t>04/01/2014</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r199320004-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -742,6 +859,9 @@
     <t>03/30/2014</t>
   </si>
   <si>
+    <t>swstange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196880080-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -757,6 +877,9 @@
     <t>Hotel has been newly remodeled.  Our room was clean and the beds were comfortable.  The sink had a leak but was fixed within 15 minutes of calling the front desk.  The employees were very friendly and helpful.  The internet coverage for room 316 is very poor but there was very good coverage down by the pool.  Overall we had a great stay for the price.  I look forward to staying here again.</t>
   </si>
   <si>
+    <t>K K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196375042-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -769,6 +892,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>jillybear728</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r196185085-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -778,6 +904,9 @@
     <t>03/04/2014</t>
   </si>
   <si>
+    <t>Phyllis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r190782283-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -790,6 +919,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Michaele O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r189031235-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -802,6 +934,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Sherwin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r188728022-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -820,6 +955,9 @@
     <t>12/25/2013</t>
   </si>
   <si>
+    <t>Patricia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r188468634-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -835,6 +973,9 @@
     <t>It was a relaxing evening. I got into jacuzzi tub for a couple hours. Slept like a baby in the queen sized bed. I highly recommend this room. Well worth the money. Next time i have extra to pay for room i am coming back to travellodge</t>
   </si>
   <si>
+    <t>Winter R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r186537601-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -847,6 +988,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Carol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r181070587-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -865,6 +1009,9 @@
     <t>180899951</t>
   </si>
   <si>
+    <t>Evans N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r178515787-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -883,6 +1030,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Zhi Lan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r173883411-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -895,6 +1045,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Jamie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r173837847-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -910,6 +1063,9 @@
     <t>We had a late arrival (really late...we checked in at 6:30am!) We had traveled from Northern California, stopped over in San Francisco including making a stop in China Town and I neglected to check the traffic report on the I5 traveling North to South and ran smack dab into road construction on a couple of spots on the I5.  I called Travelodge to notify them of a late check-in although, we didn't realize we would be that late. Well, the motel was sold out that night, however, upon OUR arrival the Front Desk had everything ready for us; it took us about 5 minutes to check-in. As you can imagine, we were exhausted so the fast, friendly service was much greatly appreciated! Thank you!Everything else was average but we had no problems with late Housekeeping requests and Front Desk service!More</t>
   </si>
   <si>
+    <t>Rosalie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r172694255-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -919,6 +1075,9 @@
     <t>08/17/2013</t>
   </si>
   <si>
+    <t>Joanna V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r171403063-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -931,6 +1090,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Jasmine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r171069561-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -940,6 +1102,9 @@
     <t>08/06/2013</t>
   </si>
   <si>
+    <t>Wendy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r170967406-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -949,6 +1114,9 @@
     <t>08/05/2013</t>
   </si>
   <si>
+    <t>Lady_Pi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r167950735-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -964,6 +1132,9 @@
     <t>I've stayed in cheap hotels a thousand times, but this one takes the crown. Not only I got a smoking room when I requested a non smoking one, but the room was dirty! There were no electrical outlets with easy access and the hallway smelled like piss. I won't be staying at any Travelodge any time soon.</t>
   </si>
   <si>
+    <t>Adriana L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r167825780-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -973,6 +1144,9 @@
     <t>07/16/2013</t>
   </si>
   <si>
+    <t>disneyvacationer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r166536020-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -982,6 +1156,9 @@
     <t>07/06/2013</t>
   </si>
   <si>
+    <t>Nancy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r165884584-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -994,6 +1171,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Migoming-kuang W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r165369708-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1003,6 +1183,9 @@
     <t>06/26/2013</t>
   </si>
   <si>
+    <t>Lawrence G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r164848973-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1012,6 +1195,9 @@
     <t>06/22/2013</t>
   </si>
   <si>
+    <t>Valdir H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r162890256-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1030,6 +1216,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Joann F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r162211085-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1042,6 +1231,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Catherine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r161419166-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1057,6 +1249,9 @@
     <t>Hotel needs to hurry up with the remodeling being done.  Rooms were shabby looking, and I wore socks the whole time I was in the room.  Carpets are very dirty.</t>
   </si>
   <si>
+    <t>MamaLoves2Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r158079549-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1075,6 +1270,9 @@
     <t>My husband &amp; I stayed here with our kids (8yr old &amp; 5yr old) last December.  Our room was clean and spacious. The staff was friendly.  We arrived in the middle of the night and Opree (or Ofree) checked us in quickly and made us feel very welcomed.  It was very late,  we just wanted to get to our room &amp; sleep, so were thankful for his fast &amp; efficient work.  This was a little  ways from Disney but no biggie for us, it was close enough to Disney &amp; Knotts. We loved that it offered free breakfast,  anything free in Anaheim's overpriced economy is very much appreciated!  It's not gourmet but its free &amp; lots of choices for the whole family.  We liked this place &amp; will come back next time we go to Anaheim.More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r157985182-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1087,6 +1285,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Ammar A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r157855604-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1102,6 +1303,9 @@
     <t xml:space="preserve">Spent 5 days in. We liked the location, the price, clean outside and room, the nice and friendly staff,  the breakfast was OK if you consider it was not your 5 star Hotel. My only complain is that room dirty carpet that turns your feet into black!!!  Is it that expensive for them to clean that carpet? </t>
   </si>
   <si>
+    <t>624SergioA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r156738812-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1111,6 +1315,9 @@
     <t>04/05/2013</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r156418398-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1123,6 +1330,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>David N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r155707774-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1132,6 +1342,9 @@
     <t>03/26/2013</t>
   </si>
   <si>
+    <t>Secondcrk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r154451157-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1150,6 +1363,9 @@
     <t>I booked this Hotel because I had credits on my Wyndam card. Wish I would have stayed somewhere else! The people were very accommodating, but that,s about where it ends! My first room was fair until the kids upstairs started running around and making noise. I had to move to the only room they had left. It was on the 3rd floor, which was alright but it must have been a monthly rental room, which they offer. This should have been a clue, but that was not on the website! Room smelled, outdated furnishing, in a real questionable part of town. I find it hard to believe that the other people rating the Hotel stayed at this place and rate it so high! Never again! I will go to the Good Nite Inn!More</t>
   </si>
   <si>
+    <t>Aurelio V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r153902414-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1168,6 +1384,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Timothy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r153336896-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1180,6 +1399,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>RANDAL E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r151049812-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1192,6 +1414,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>SHARON G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r148225056-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1201,6 +1426,9 @@
     <t>12/28/2012</t>
   </si>
   <si>
+    <t>connie m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r146770400-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1219,6 +1447,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Phil H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r145622348-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1240,6 +1471,9 @@
     <t>Took family to Knotts scary farm but i think the hotel we chose was the real fright. Last min planning i guess. 1st room on north side the air conditioner didnt work was very warm, requested another room and it smelled like homeless dirty feet, requested another and it had a pass thru door between rooms, omg door jam so bad you could lock door pull knob and it would just pop open ,what kind of security do you have with people in room next to you NONE&gt; Asked for another room to managements displeasure and finaly got a room worth sleeping in. I dont think im so picky but when it comes to family safety and some comfort i have to be. WAS within walking distance of park across street. So if all your lookin for is a pillow to sleep after a long nite so so .More</t>
   </si>
   <si>
+    <t>WILLIAM C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r145011103-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1249,6 +1483,9 @@
     <t>11/09/2012</t>
   </si>
   <si>
+    <t>KALEENA L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r144617855-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1267,6 +1504,9 @@
     <t>The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED...The toilet leaked (almost poured!) water from the base every time I flushed the toilet. The manager said the maintenance man could fix it but he had to take the whole toilet out and work on it for an hour and a half. He told us we could leave or stay during that time. I told him that wasn't going to work and to move us to another room (our stuff was already unpacked) and he said they only had non-smoking rooms. I told him we are smokers and we NEED a smoking room. He told us we could just go outside to smoke. Standing on a balcony naked at 2 in the morning is NOT acceptable and it's very inconvenient. Eventually I just told him to give me towels to put on the floor since his options were not acceptable. The amount of water on the floor was pretty bad. We had at least 10 towels to soak up the water for a 1 night stay and our feet were wet every time we used the restroom (see pic). It made for a VERY romantic evening... When I went to the front desk in the morning to talk to a higher manager the lady was rude and blamed it on me and she wouldn't give me the corporate number. I called corporate and they told the manager to fix the situation. He called my room and YELLED and ARGUED with me and told me I should have taken my money and gone elsewhere... uhhh I booked this room way ahead of time. I'm not just going to drive around looking for a new place to stay. Seriously, I've never been treated that way by an employee anywhere. I had to stop the manager dead in his tracks while he was yelling and let him know his behavior was unacceptable and I had to hang up on him. I've worked at a hotel before and have still never seen anything like that!More</t>
   </si>
   <si>
+    <t>BILLIJO P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r144042225-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1282,6 +1522,9 @@
     <t>Not in a safe area for children. We found tons of ants in the room &amp; carpet left our baby black from dirt in a matter of seconds. Mat in bathtub stained with mold. Staff was friendly however.</t>
   </si>
   <si>
+    <t>Ginamarie Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r142611054-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1300,12 +1543,18 @@
     <t>I made reservations for myself and my husband ,we were expecting a comfortabe night stay....we were wrong !!!! As soon as I parked I saw three prostitutes walking into the hotel together (and your probobly thinking how do you know they are prostitutes) Oh you would know too .When we got to our room it smelled moldy and I saw a Couple of fleas jumping on the carpet ,ciggarette burns on the toilt seat,and water stains on the ceiling I called the front desk andshe said in a uncaring voice sorry nothing we could do . I quickly called expedia who I booked with and said move me please !! and that was te end of that.More</t>
   </si>
   <si>
+    <t>MARY D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r142568567-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
     <t>142568567</t>
   </si>
   <si>
+    <t>ppbush</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r138601589-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1327,6 +1576,9 @@
     <t>Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service...Arrived at hotel to check into a non smoking room.  Room SMELLS OF VERY VERY HEAVY SMOKE.  Go into the bathroom and there are 20-25 ants crawling all over the sink.  We call the front desk guy up and I show him the ants.  His response "When it gets hot, they crawl up" WTF How crazy is that? Not to mention that this was on the 3rd floor! No apology or anything, acted like it was everyday business!  Needless to say I requested another room (non smoking).  He walks us to the room opens the door and BAM I get hit with heavy smoke again yet this time it appears housekeeping tried to cover it up by spraying TONS of citrus air freshener.  Tried again, room 3.  Much better than the other two but it still felt dirty and the beds should have been replaced years ago!!! If it wasn't 2am and the kids had not just been on a 6hr drive, we would have just left and found some place else! We ended up checkout out at 7am we as couldn't wait to get out of there.  Nobody slept well because of the beds and overall dirty feel to the place. All we expected was a basic, clean place to sleep.  THIS PLACE FAILED BIG TIME.  Ended up staying the next 2 nights a the Stoval Best Western: nice, clean, updated, 2 pools, 2 hot tubs, and good service for only $30 more per night! Skip this place,don't learn the hard way like us!More</t>
   </si>
   <si>
+    <t>Bleh3489</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r138547242-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1342,6 +1594,9 @@
     <t>We stayed here for one night for our trip in August and honestly it wasn't all that bad. We checked in around 11pm and the front desk was very friendly and helpful. The room itself was ok, it wasn't the most updated but for the price range, this was a great deal. We had clean towels and clean sheets which is very important to me. It seems like the tried to update a little with the painted walls and decor which is pretty nice. Bathroom could have used with a little more water pressure in the shower but, there was plenty of hot water to go around for all 3 of us. I did not get to use the indoor pool because of our short stay but it seemed nice enough.The only down fall to this location was that there was a few people hanging around in the parking lot around their cars. They seemed to just be talking and socializing but it still gave me an uncomfortable feeling. Can't blame the front desk for going out to tell them not to loiter as it was just her by herself.All in all, I would stay here again. Location is great and the price was a great deal :)More</t>
   </si>
   <si>
+    <t>Tayon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r137021935-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1360,6 +1615,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Elizebeth G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r135496332-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1378,6 +1636,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>billy g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r135094154-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1399,6 +1660,9 @@
     <t>First this is an old hotel from bottom to top,carpet stinks,old apliances,old furniture,the tv only like 15 channels if u want more u pay more,swimming pool what a joke 5 by 5 pool and probably they never changed the water or cleaned,they need a good maintenance people to be on top of this,and breakfast is cereal bagels and juice or coffee nothing more,lisa the morning clerk is defensive not nice,she thinks we are doing a favor to her by staying,and at night get ready to hear ambulances,cops sirens all night and the sheriff helicopter all night,and not telling u,people around at night(homeless,prostitutes,etc.)i was scary at some point because i was with my family and i didnt bring my gun to protect me,they knock my door like 3 times at night at 2 in the morning(prostitute)looking for some work,they need to hire a security guard to check at night for intruders,i regret i stay here i should pay 30 or 40 more dollars and stay at the holliday inn at least and get a nice comfort,but i learn my lesson the hard way,i would never stay here or recommend any family to stay here,maybe if ur going solo ok if they reduced the price.More</t>
   </si>
   <si>
+    <t>Crizelda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r134351176-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1412,6 +1676,9 @@
   </si>
   <si>
     <t>A decent and convenient place to stay in. Closed to the parks. Staffs are very friendly.  I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>Les H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r129911491-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
@@ -1439,6 +1706,9 @@
 If you have a problem,...We never read any reviews on this hotel before checking in. My wife &amp; I came from Asia for a 2-3 month business trip. We checked in to the Buena Park Travelodge in Anaheim. Right from the start we knew we had found a rare and special hotel. The front desk staff was genuinely friendly and quick  to help us with all our requests. The GM treated us like family members and hovered over the place like a mother hen wanting to make sure everything was ok, and it was. We live in hotels all over the world 360 days a year and it’s rare to feel like you are really at home but this staff made us feel at home quickly.We’re back in Asia now and I only saw the reviews on this hotel a week after departure and I can tell you all the positive reviews are exactly true. We stayed well over a month and were sad to leave. Yes the beds are soft but don’t let that fool you. I have a real bad back and even tho the bed was soft there was strong support on all the curves of my back and I never had such a good nites sleep. My back felt fine the whole time and as soon as we went to a different hotel &amp; a different bed my back pain was right there again.If you have a problem, just let Eliza or Josna at the front desk know and they will be right on it. Richmond the GM will give maximum support to the staff to satisfy their guests in every possible way. One day my TV just died in the middle of a good show. Jose’ had my TV replaced in 10 minutes &amp; I enjoyed the rest of my show. You can’t get better service than that anywhere and I don’t care what Star hotel you’re staying at.Honest heartfelt service beats 'plastic face' smiles of the high end hotels every time &amp; at this hotel the smiles &amp; help are for real. I dare any hotel to do better, &amp; we look forward to going back,… they spoiled us, how cool is that? A special thanks to all of you who made it happen.  Les &amp; Wendy.More</t>
   </si>
   <si>
+    <t>Brian_Tamayo205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r126717666-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1457,6 +1727,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Amreid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r124459004-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1472,6 +1745,9 @@
     <t xml:space="preserve">Our stay at this hotel was wonderful. The service was extremely friendly and helpful. The room was very clean and well kept. The cleaning service was timely and efficient. The property was clean and attractive. </t>
   </si>
   <si>
+    <t>Nguyen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r119054213-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1490,6 +1766,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Fabalo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r117979724-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1505,6 +1784,9 @@
     <t>The room was great and the service was even better!Josna at the front desk has a way with attentiveness and professionalism that is hard to find</t>
   </si>
   <si>
+    <t>Venhazel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r116347757-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1529,6 +1811,9 @@
     <t>I was skeptical at first due to the reviews but Is not as bad as some people stated. Here are my negatives: no iron, pool was never heated and when we asked for the heater to be turned on the front desk guy got upset sent someone out to "turn it on" but they said it wasn't  working. We also got 3 towels when there were 4 of us. Positives: location, room cleaned daily, parking right in front of the room every day. Breakfast was decent juice, coffee,milk, cereal,bagels, muffins, and Danish  Overall, it was a pleasant stay and I would go again.More</t>
   </si>
   <si>
+    <t>honestowl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r108159091-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1553,6 +1838,9 @@
     <t>You have cameras facing your door., and I've had petty things stolen but didn't report it. I just won't stay again. Also  People hang out on the balcony, you are being watched as your entering and exiting your room. The cleaning lady still knocks your door, even there is a Do Not Disturb sign there!   If you want privacy and discretion don't stay here. Some of the hotel staff gossip about customers! So beware! Overall, the rooms are decent,  the sheets feel like paper. And a feeling of uneasyness that creeps over you. And the spa pool is not working there.More</t>
   </si>
   <si>
+    <t>FooBarTA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r105091703-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1578,6 +1866,9 @@
   </si>
   <si>
     <t>We stayed in two rooms not near each other. So it wasn't a problem with just one part of the hotel. Every time we entered the rooms, we were greeted with a very overwhelming stuffy moldy smell. The bathroom was even worse. I think it was the shower curtain where the moldy smell was coming from. It was really really bad. The carpet was actually sticky at some places. I have stayed at some very cheap hotels like motel 6, etc. But this one is the worst of the hundreds of hotels I've stayed in. There was no coffee maker in one of the rooms, even though it was advertised. The neighborhood was ok, neither scary not great.More</t>
+  </si>
+  <si>
+    <t>ourtravfam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r85511771-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
@@ -1607,6 +1898,9 @@
 4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push...1. Very low water pressure and cold at that.  Takes forever to brush teeth or wash hands. Had to us hand sanitizer to complete washing of the hands.  Forget about showering -no hot water either.  This should be a basic comodity with any hotel.  Apparently, here it isn't.2. We chose this hotel based upon the "Indoor Heated Pool" advertisement. The pool is NOT heated and is partially indoors (like under an awning). When we asked about the heated pool, staff acted as if it was a lot of trouble to turn it on, but they said it would take 1.5 to 2hrs to heat. We checked after 3 hrs and still not heated.  Checked in the morning and still not heated.3. Giving the $10 refundable room key deposit was not an issue.  But, when we checked out the girl at the desk acted as if she did not know what we were talking about and said she needed to check on that.  We pointed to their sign taped on top of the desk that clearly stated that there is a "10 refundable room key deposit ".  If you don't remind them you won't get it back.4. Beware of any furniture that can be a hazzard. The frame at the bottom of the bed had support rungs that run across the top and run across the bottom were protruding about 3in from the bed.  We try to push them back but the way the frame is bolted to the floor or however they stable it, they weren't moving anywhere.5. Hard to get into the parking lot.  If you pass it up, you have to make a U-turn at the next light and you can only get to the hotel if you are headed West otherwise you have to travel to the next stoplight to make a U-turn, pass up the hotel to the next stop and then another U-turn (not turn-in at the middle).More</t>
   </si>
   <si>
+    <t>dmansu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r66447855-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1634,6 +1928,9 @@
     <t>During my visit to the torrance travelodge recommended this hotel for my visit to disneyland.  The staff was friendly, and the hotel is very clean.  The hotel has free breakfast , wifi and even a jacuzzi room making this a very comfortable  and enjoyable stay.More</t>
   </si>
   <si>
+    <t>uclakapono</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r65229650-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1655,6 +1952,9 @@
     <t>Being a SoCal native, I needed to find a place to stay on a recent trip to Disneyland that would give me and my girlfriend a nice place to retreat but still be affordable.  We lucked out with the Travelodge Anaheim.  1) Location: Not only was it close to our premiere destination of Disneyland (a short trip on local streets got us there quickly), but it was also even closer to Knotts Berry Farm and downtown Buena Park, where we found tons of dining selections that were open relatively late.  2) Accommodations:  Spacious, clean, large bed, jacuzzi jet tub, mini-fridge and microwave, plus DirecTv!  Free wireless!  Free continental breakfast!  Free parking!  3) Service: The front desk attendant make checking in and finding our room very easy.  Also, check out was a breeeeze!  Very helpful.  4) Overall Value: Excellent.  For the price, it had so many free perks and was such a positive experience that I would recommend it to any couple or family making it out to SoCal for theme park trips.  We didn't get to check out the pool and the only hiccup was the hot tub was out of commission the night we stayed.  It would also fit my needs as a business traveler with the free wifi, mini-fridge/microwave, and spacious desk. All in all, it exceeded all expectations.More</t>
   </si>
   <si>
+    <t>tylla_wolf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r40467576-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1676,6 +1976,9 @@
     <t>The place was a good deal for what we paid. We only stayed 2 nights and we didn't expect much of it, but overall the room was decent. The general cleanliness was doubtful - dirt stains on the bathroom door, worn out carpet and old furniture. But the bed sheets and towels were clean, the beds were comfy and everything in the room was functional: AC, TV, refrigerator, microwave, coffee maker, etc. The pressure of the hot water in the shower was low, but just enough to take a quick shower. Very simple breakfast (2 types of cereal, muffins and fruit, tea, coffee, orange juice and milk) but it's nice to be able to grab a bite in the morning.The staff were very, very friendly and helpful and that's a great plus for the hotel.You get what you paid for, which is not much, but remember that the price is $20-30 less than other hotels per night. Maybe not suited for people who have high expectations, but if you're on a low-budget trip to Disneyland and only need a place to sleep and take a shower, I would definitely recommend it.More</t>
   </si>
   <si>
+    <t>spoiler22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r26069206-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1692,6 +1995,9 @@
   </si>
   <si>
     <t>March 2009</t>
+  </si>
+  <si>
+    <t>ZeroZero98</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r24401213-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
@@ -1717,6 +2023,9 @@
 Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160...I was suppose to stay at this hotel, but in error we went to the other travelodge closer to the Convention Center, the reason for our trip.  When we found out the error and they told us that we were at the wrong hotel, the front desk at the new hotel sold us a room at their location, called the other hotel and told them to waive our cancel penalty as they had sold us a room.  We were assured this was done.  Afterwards, my credit card bill showed the charge for the cancellation at this hotel, that we were told would be waived since we stayed at a different Travelodge.  Well after repeated calls to the hotel to speak to the hotel manager (who is NEVER there), I finally got a call over 2 weeks later from her, to tell me that though she could reverse the charge, she was not going to since they shouldn't be punished for the late cancellation.  I told her that we didn't really cancel, we just got a room sold to us a different Travelodge, same company.  She then tried to explain to me that they are franchised and again wouldn't hear any of it.  I am disputing the charge with my credit card company and have a letter from the Manager of the hotel we did stay at telling me they confirmed the cancellation was waived with this hotel.  If the $160 is worth the bad press to them, fine, but honestly they should honor what they told the hotel clerk at the other travelodge.  The manager here was rude and was completely NOT comprimising.More</t>
   </si>
   <si>
+    <t>GarethClayton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r19939393-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1732,6 +2041,9 @@
     <t>Family of five in two rooms travelling from the Uk and just needed one night in this area.As ever, you get what you pay for. We just wanted somewhere to sleep before continuing our holiday and therefore it more than met our requirments.Rooms weren't too bad at all and up to the standard you would expect of Travelodge. If you want 5 star then book 5 star.The rooms were clean and spacious and the hotel staff we met were very friendly, helpful and polite.If you are looking for Travelodge type hotel in this area then it is worth considering. I would use it again.</t>
   </si>
   <si>
+    <t>Fiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r6135176-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1750,6 +2062,9 @@
     <t>November 2006</t>
   </si>
   <si>
+    <t>Mdss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r5772967-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1768,6 +2083,9 @@
     <t>August 2006</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r4949180-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
   </si>
   <si>
@@ -1802,6 +2120,9 @@
   </si>
   <si>
     <t>I reserved this room for two nights, after the first 30 minutes I was ready to take the loss and find a different hotel.  The room smelled terrible, the linens were extremely worn, and overall had the apperance of not being well kept.  The staff seemed friendly but when I returned after being gone for the day the room was exactly as I had left it.  they did not clean the room, no fresh towels, trash was not emptied, etc, etc.  My wife and I felt a bit unsure about the place and felt it was just best to leave. This hotel was booked through Priceline.com and my next contact will be to inform them how terrible our stay was even though Priceline had recommended this hotel.  I would never stay at this place again.More</t>
+  </si>
+  <si>
+    <t>pedalawayWA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75727-r3433469-Motel_6_Anaheim_Buena_Park-Anaheim_California.html</t>
@@ -2384,43 +2705,47 @@
       <c r="A2" t="n">
         <v>18194</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2438,56 +2763,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>18194</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2505,56 +2834,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>18194</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2572,56 +2905,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>18194</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2635,50 +2972,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>18194</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2696,50 +3037,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>18194</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2753,35 +3098,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>18194</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2789,10 +3138,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2813,51 +3162,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>18194</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2881,50 +3231,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>18194</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2942,50 +3296,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>18194</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3005,35 +3363,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>18194</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3041,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3065,36 +3427,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>18194</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3102,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -3126,36 +3489,37 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>18194</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3163,10 +3527,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3187,51 +3551,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>18194</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>130</v>
       </c>
-      <c r="L15" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>119</v>
-      </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3245,50 +3610,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>18194</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3312,50 +3681,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>18194</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3379,48 +3752,52 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>18194</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3444,50 +3821,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>18194</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>151</v>
       </c>
-      <c r="K19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>136</v>
-      </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3511,50 +3892,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18194</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3572,35 +3957,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>18194</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3608,10 +3997,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3632,36 +4021,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>18194</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3669,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3693,51 +4083,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>18194</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3761,50 +4152,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>18194</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3828,35 +4223,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>18194</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3864,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3888,51 +4287,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>18194</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3956,35 +4356,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>18194</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3992,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4016,36 +4420,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>18194</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4053,10 +4458,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4077,36 +4482,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>18194</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>219</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4114,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4138,51 +4544,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>18194</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4206,48 +4613,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>18194</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4271,50 +4682,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>18194</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4338,50 +4753,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>18194</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4405,35 +4824,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>18194</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4441,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4465,51 +4888,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>18194</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4523,48 +4947,52 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>18194</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4588,35 +5016,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>18194</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>260</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4624,10 +5056,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4648,36 +5080,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>18194</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4685,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4709,36 +5142,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>18194</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4746,10 +5180,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4770,36 +5204,37 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>18194</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>273</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="J40" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4807,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4831,51 +5266,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>18194</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="J41" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4899,35 +5335,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>18194</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4935,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4959,36 +5399,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>18194</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4996,10 +5437,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5020,36 +5461,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>18194</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -5057,10 +5499,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5071,36 +5513,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>18194</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>297</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="J45" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5108,10 +5551,10 @@
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5132,36 +5575,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>18194</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="J46" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5169,10 +5613,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5193,36 +5637,37 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>18194</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="J47" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -5230,10 +5675,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5254,51 +5699,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>18194</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="J48" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5322,35 +5768,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>18194</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="J49" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5358,10 +5808,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5382,36 +5832,37 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>18194</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>320</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5419,10 +5870,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5443,36 +5894,37 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>18194</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5480,10 +5932,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="O51" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5504,51 +5956,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>18194</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>327</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5572,35 +6025,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>18194</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>334</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="J53" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5608,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5632,51 +6089,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>18194</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>339</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="J54" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="K54" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5700,35 +6158,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>18194</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>345</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="J55" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5736,10 +6198,10 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5760,36 +6222,37 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>18194</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>349</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="J56" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5797,10 +6260,10 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5821,36 +6284,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>18194</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="J57" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5858,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5882,36 +6346,37 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>18194</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>358</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="J58" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5919,10 +6384,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5943,51 +6408,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>18194</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>362</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="J59" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="L59" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6011,35 +6477,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>18194</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>368</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="J60" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6047,10 +6517,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6071,36 +6541,37 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>18194</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>372</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="J61" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6108,10 +6579,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6132,36 +6603,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>18194</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>376</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="J62" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6169,10 +6641,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6193,36 +6665,37 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>18194</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>381</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="J63" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6230,10 +6703,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6254,36 +6727,37 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>18194</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>385</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6291,10 +6765,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6315,51 +6789,52 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>18194</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>389</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="K65" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="L65" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6383,35 +6858,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>18194</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>396</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="J66" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6419,10 +6898,10 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6443,51 +6922,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>18194</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>401</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="J67" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="K67" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="L67" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6511,50 +6991,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>18194</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>407</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="J68" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="K68" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6568,35 +7052,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>18194</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>414</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="J69" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6604,10 +7092,10 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="O69" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6628,51 +7116,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>18194</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>419</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="J70" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="K70" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6696,35 +7185,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>18194</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>425</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="J71" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6732,10 +7225,10 @@
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6756,36 +7249,37 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>18194</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>429</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="J72" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6793,10 +7287,10 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -6817,36 +7311,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>18194</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>434</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6854,10 +7349,10 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="O73" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6878,51 +7373,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>18194</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>438</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="J74" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="K74" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="L74" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="O74" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6946,50 +7442,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>18194</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>445</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="J75" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="K75" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7013,35 +7513,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>18194</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>452</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="J76" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7049,10 +7553,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -7073,36 +7577,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>18194</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>457</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="J77" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7110,10 +7615,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="O77" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7134,36 +7639,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>18194</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>462</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="J78" t="s">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7171,10 +7677,10 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7195,51 +7701,52 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>18194</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>466</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="J79" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="K79" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7263,50 +7770,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>18194</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>473</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="J80" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="K80" t="s">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7330,35 +7841,39 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>18194</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>481</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="J81" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7366,10 +7881,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7390,51 +7905,52 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>18194</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>485</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="J82" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="K82" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="L82" t="s">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="O82" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7458,50 +7974,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>18194</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>492</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="J83" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="K83" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="L83" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7525,50 +8045,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>18194</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>498</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="J84" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="K84" t="s">
-        <v>421</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s">
-        <v>422</v>
+        <v>503</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="O84" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7592,35 +8116,39 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>18194</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>505</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="J85" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -7628,10 +8156,10 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="O85" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7650,51 +8178,52 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>18194</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>508</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="J86" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="K86" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="L86" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7718,50 +8247,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>18194</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>516</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="J87" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="K87" t="s">
-        <v>435</v>
+        <v>519</v>
       </c>
       <c r="L87" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="O87" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7785,50 +8318,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>18194</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>522</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="J88" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>526</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>443</v>
+        <v>528</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7852,50 +8389,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>18194</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>529</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="J89" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
       <c r="K89" t="s">
-        <v>447</v>
+        <v>533</v>
       </c>
       <c r="L89" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7919,50 +8460,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>18194</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>536</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>451</v>
+        <v>538</v>
       </c>
       <c r="J90" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
       <c r="K90" t="s">
-        <v>453</v>
+        <v>540</v>
       </c>
       <c r="L90" t="s">
-        <v>454</v>
+        <v>541</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>455</v>
+        <v>542</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -7986,50 +8531,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>456</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>18194</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>544</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>457</v>
+        <v>545</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>458</v>
+        <v>546</v>
       </c>
       <c r="J91" t="s">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="K91" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="L91" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>455</v>
+        <v>542</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8053,50 +8602,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>18194</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>550</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>462</v>
+        <v>551</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>463</v>
+        <v>552</v>
       </c>
       <c r="J92" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="K92" t="s">
-        <v>465</v>
+        <v>554</v>
       </c>
       <c r="L92" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O92" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8120,50 +8673,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>18194</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>558</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="J93" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="K93" t="s">
-        <v>472</v>
+        <v>562</v>
       </c>
       <c r="L93" t="s">
-        <v>473</v>
+        <v>563</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>474</v>
+        <v>564</v>
       </c>
       <c r="O93" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8187,41 +8744,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>473</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>18194</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>565</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>476</v>
+        <v>567</v>
       </c>
       <c r="J94" t="s">
-        <v>477</v>
+        <v>568</v>
       </c>
       <c r="K94" t="s">
-        <v>478</v>
+        <v>569</v>
       </c>
       <c r="L94" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8250,50 +8811,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>18194</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>571</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="J95" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="K95" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
       <c r="L95" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="O95" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8317,41 +8882,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>18194</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>578</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>486</v>
+        <v>579</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>487</v>
+        <v>580</v>
       </c>
       <c r="J96" t="s">
-        <v>488</v>
+        <v>581</v>
       </c>
       <c r="K96" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="L96" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -8380,50 +8949,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>18194</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>584</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="J97" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="K97" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="L97" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8441,47 +9014,51 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="X97" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="Y97" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>18194</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>593</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="J98" t="s">
-        <v>501</v>
+        <v>596</v>
       </c>
       <c r="K98" t="s">
-        <v>502</v>
+        <v>597</v>
       </c>
       <c r="L98" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
@@ -8508,56 +9085,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>504</v>
+        <v>599</v>
       </c>
       <c r="X98" t="s">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="Y98" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>18194</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>602</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>507</v>
+        <v>603</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="J99" t="s">
-        <v>509</v>
+        <v>605</v>
       </c>
       <c r="K99" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="L99" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8579,56 +9160,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="X99" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="Y99" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>18194</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>612</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>516</v>
+        <v>613</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>517</v>
+        <v>614</v>
       </c>
       <c r="J100" t="s">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="K100" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="L100" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -8652,50 +9237,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>18194</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>620</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="J101" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="K101" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="L101" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8717,56 +9306,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="X101" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="Y101" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>18194</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>630</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="J102" t="s">
-        <v>534</v>
+        <v>633</v>
       </c>
       <c r="K102" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="L102" t="s">
-        <v>536</v>
+        <v>635</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>537</v>
+        <v>636</v>
       </c>
       <c r="O102" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -8788,56 +9381,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="X102" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="Y102" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>18194</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>638</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="J103" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
       <c r="K103" t="s">
-        <v>542</v>
+        <v>642</v>
       </c>
       <c r="L103" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="O103" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -8861,50 +9458,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>545</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>18194</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>646</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>546</v>
+        <v>647</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>547</v>
+        <v>648</v>
       </c>
       <c r="J104" t="s">
-        <v>548</v>
+        <v>649</v>
       </c>
       <c r="K104" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
       <c r="L104" t="s">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>551</v>
+        <v>652</v>
       </c>
       <c r="O104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -8928,50 +9529,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>550</v>
+        <v>651</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>18194</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>653</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>553</v>
+        <v>655</v>
       </c>
       <c r="J105" t="s">
-        <v>554</v>
+        <v>656</v>
       </c>
       <c r="K105" t="s">
-        <v>555</v>
+        <v>657</v>
       </c>
       <c r="L105" t="s">
-        <v>556</v>
+        <v>658</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>557</v>
+        <v>659</v>
       </c>
       <c r="O105" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -8993,41 +9598,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>558</v>
+        <v>660</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>18194</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>661</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>559</v>
+        <v>662</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>560</v>
+        <v>663</v>
       </c>
       <c r="J106" t="s">
-        <v>561</v>
+        <v>664</v>
       </c>
       <c r="K106" t="s">
-        <v>562</v>
+        <v>665</v>
       </c>
       <c r="L106" t="s">
-        <v>563</v>
+        <v>666</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
@@ -9056,50 +9665,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>563</v>
+        <v>666</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>18194</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>667</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>565</v>
+        <v>669</v>
       </c>
       <c r="J107" t="s">
-        <v>566</v>
+        <v>670</v>
       </c>
       <c r="K107" t="s">
-        <v>567</v>
+        <v>671</v>
       </c>
       <c r="L107" t="s">
-        <v>568</v>
+        <v>672</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>569</v>
+        <v>673</v>
       </c>
       <c r="O107" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9123,50 +9736,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>568</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>18194</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>674</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>570</v>
+        <v>675</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="J108" t="s">
-        <v>572</v>
+        <v>677</v>
       </c>
       <c r="K108" t="s">
-        <v>573</v>
+        <v>678</v>
       </c>
       <c r="L108" t="s">
-        <v>574</v>
+        <v>679</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>575</v>
+        <v>680</v>
       </c>
       <c r="O108" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9190,41 +9807,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>574</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>18194</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>681</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>576</v>
+        <v>682</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>577</v>
+        <v>683</v>
       </c>
       <c r="J109" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="K109" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="L109" t="s">
-        <v>580</v>
+        <v>686</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
@@ -9251,41 +9872,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>18194</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>681</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>582</v>
+        <v>688</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c r="J110" t="s">
-        <v>584</v>
+        <v>690</v>
       </c>
       <c r="K110" t="s">
-        <v>585</v>
+        <v>691</v>
       </c>
       <c r="L110" t="s">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -9304,41 +9929,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>18194</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>694</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>588</v>
+        <v>695</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>589</v>
+        <v>696</v>
       </c>
       <c r="J111" t="s">
-        <v>590</v>
+        <v>697</v>
       </c>
       <c r="K111" t="s">
-        <v>591</v>
+        <v>698</v>
       </c>
       <c r="L111" t="s">
-        <v>592</v>
+        <v>699</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
@@ -9365,41 +9994,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>592</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>18194</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>681</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>593</v>
+        <v>700</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>594</v>
+        <v>701</v>
       </c>
       <c r="J112" t="s">
-        <v>595</v>
+        <v>702</v>
       </c>
       <c r="K112" t="s">
-        <v>596</v>
+        <v>703</v>
       </c>
       <c r="L112" t="s">
-        <v>597</v>
+        <v>704</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
@@ -9426,41 +10059,45 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>598</v>
+        <v>705</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>18194</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>681</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>599</v>
+        <v>706</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>600</v>
+        <v>707</v>
       </c>
       <c r="J113" t="s">
-        <v>601</v>
+        <v>708</v>
       </c>
       <c r="K113" t="s">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="L113" t="s">
-        <v>603</v>
+        <v>710</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
@@ -9479,41 +10116,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>603</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>18194</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>681</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>604</v>
+        <v>711</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>605</v>
+        <v>712</v>
       </c>
       <c r="J114" t="s">
-        <v>606</v>
+        <v>713</v>
       </c>
       <c r="K114" t="s">
-        <v>607</v>
+        <v>714</v>
       </c>
       <c r="L114" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
@@ -9532,41 +10173,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>18194</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>681</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>609</v>
+        <v>716</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>610</v>
+        <v>717</v>
       </c>
       <c r="J115" t="s">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="K115" t="s">
-        <v>612</v>
+        <v>719</v>
       </c>
       <c r="L115" t="s">
-        <v>613</v>
+        <v>720</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
@@ -9585,7 +10230,7 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>613</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
